--- a/Python MP/MP_Products.xlsx
+++ b/Python MP/MP_Products.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="497">
   <si>
     <t>HasUnitOfMeasure</t>
   </si>
@@ -153,6 +153,9 @@
     <t>Corn Soya Blend</t>
   </si>
   <si>
+    <t>Dried Fruits</t>
+  </si>
+  <si>
     <t>High Energy Biscuit</t>
   </si>
   <si>
@@ -210,6 +213,9 @@
     <t>CANNED FISH</t>
   </si>
   <si>
+    <t>DRIED FRUITS</t>
+  </si>
+  <si>
     <t>HIGH ENERGY BISCUITS</t>
   </si>
   <si>
@@ -291,6 +297,9 @@
     <t>20% BROKEN RICE_GUINEA_200326</t>
   </si>
   <si>
+    <t>20% BROKEN RICE_LIBERIA_200550</t>
+  </si>
+  <si>
     <t>25% BROKEN RICE_BENIN_200721</t>
   </si>
   <si>
@@ -354,9 +363,24 @@
     <t>CANNED FISH_GUINEA-BISSAU_200846</t>
   </si>
   <si>
+    <t>CANNED FISH_SENEGAL_200249</t>
+  </si>
+  <si>
+    <t>CANNED FISH_SENEGAL_200681</t>
+  </si>
+  <si>
+    <t>DRIED FRUITS_BURKINA FASO_200163</t>
+  </si>
+  <si>
     <t>HIGH ENERGY BISCUITS_CAMEROON_200777</t>
   </si>
   <si>
+    <t>HIGH ENERGY BISCUITS_CEN.AFRICAN REP_200799</t>
+  </si>
+  <si>
+    <t>HIGH ENERGY BISCUITS_CHAD_200777</t>
+  </si>
+  <si>
     <t>HIGH ENERGY BISCUITS_MALI_200719</t>
   </si>
   <si>
@@ -408,6 +432,9 @@
     <t>IODISED SALT_LIBERIA_200395</t>
   </si>
   <si>
+    <t>IODISED SALT_LIBERIA_200550</t>
+  </si>
+  <si>
     <t>IODISED SALT_MALI_200719</t>
   </si>
   <si>
@@ -513,6 +540,9 @@
     <t>PALMOLIEN OIL_LIBERIA_200395</t>
   </si>
   <si>
+    <t>PALMOLIEN OIL_LIBERIA_200550</t>
+  </si>
+  <si>
     <t>PALMOLIEN OIL_MALI_200719</t>
   </si>
   <si>
@@ -525,6 +555,9 @@
     <t>PALMOLIEN OIL_NIGER_200961</t>
   </si>
   <si>
+    <t>PALMOLIEN OIL_SENEGAL_200249</t>
+  </si>
+  <si>
     <t>PALMOLIEN OIL_SIERRA LEONE_200938</t>
   </si>
   <si>
@@ -534,12 +567,18 @@
     <t>PLUMPY DOZ_GAMBIA_200557</t>
   </si>
   <si>
+    <t>PLUMPY DOZ_GUINEA_200326</t>
+  </si>
+  <si>
     <t>PLUMPY DOZ_MALI_200719</t>
   </si>
   <si>
     <t>Q7</t>
   </si>
   <si>
+    <t>PLUMPY DOZ_SENEGAL_200249</t>
+  </si>
+  <si>
     <t>SORGHUM/MILLET_CAMEROON_200777</t>
   </si>
   <si>
@@ -609,12 +648,18 @@
     <t>SPLIT YELLOW PEAS_GAMBIA_200327</t>
   </si>
   <si>
+    <t>SPLIT YELLOW PEAS_GUINEA-BISSAU_200846</t>
+  </si>
+  <si>
     <t>SPLIT YELLOW PEAS_GUINEA_200326</t>
   </si>
   <si>
     <t>SPLIT YELLOW PEAS_LIBERIA_200395</t>
   </si>
   <si>
+    <t>SPLIT YELLOW PEAS_LIBERIA_200550</t>
+  </si>
+  <si>
     <t>SPLIT YELLOW PEAS_MALI_200719</t>
   </si>
   <si>
@@ -657,6 +702,9 @@
     <t>SUPER CEREAL (CSB+) WITH SUGAR_GUINEA_200326</t>
   </si>
   <si>
+    <t>SUPER CEREAL (CSB+) WITH SUGAR_LIBERIA_200550</t>
+  </si>
+  <si>
     <t>SUPER CEREAL (CSB+) WITH SUGAR_MALI_200719</t>
   </si>
   <si>
@@ -675,6 +723,9 @@
     <t>SUPER CEREAL (CSB+) WITH SUGAR_NIGER_200961</t>
   </si>
   <si>
+    <t>SUPER CEREAL (CSB+) WITH SUGAR_SENEGAL_200249</t>
+  </si>
+  <si>
     <t>SUPER CEREAL (CSB+) WITH SUGAR_SENEGAL_200681</t>
   </si>
   <si>
@@ -708,6 +759,12 @@
     <t>SUPER CEREAL PLUS (CSB++)_CHAD_200777</t>
   </si>
   <si>
+    <t>SUPER CEREAL PLUS (CSB++)_CÔTE D'IVOIRE_200464</t>
+  </si>
+  <si>
+    <t>SUPER CEREAL PLUS (CSB++)_CÔTE D'IVOIRE_200960</t>
+  </si>
+  <si>
     <t>SUPER CEREAL PLUS (CSB++)_GUINEA-BISSAU_200846</t>
   </si>
   <si>
@@ -813,6 +870,9 @@
     <t>WHITE SUGAR_CHAD_200713</t>
   </si>
   <si>
+    <t>WHOLE GREEN LENTILS_MAURITANIA_200251</t>
+  </si>
+  <si>
     <t>WHOLE GREEN LENTILS_MAURITANIA_200640</t>
   </si>
   <si>
@@ -834,6 +894,9 @@
     <t>20% BROKEN RICE_GUINEA_200326 [Non GMO]</t>
   </si>
   <si>
+    <t>20% BROKEN RICE_LIBERIA_200550 [Non GMO]</t>
+  </si>
+  <si>
     <t>25% BROKEN RICE_BENIN_200721 [Non GMO]</t>
   </si>
   <si>
@@ -882,9 +945,24 @@
     <t>CANNED FISH_GUINEA-BISSAU_200846 [Non GMO]</t>
   </si>
   <si>
+    <t>CANNED FISH_SENEGAL_200249 [Non GMO]</t>
+  </si>
+  <si>
+    <t>CANNED FISH_SENEGAL_200681 [Non GMO]</t>
+  </si>
+  <si>
+    <t>DRIED FRUITS_BURKINA FASO_200163 [Non GMO]</t>
+  </si>
+  <si>
     <t>HIGH ENERGY BISCUITS_CAMEROON_200777 [Non GMO]</t>
   </si>
   <si>
+    <t>HIGH ENERGY BISCUITS_CEN.AFRICAN REP_200799 [Non GMO]</t>
+  </si>
+  <si>
+    <t>HIGH ENERGY BISCUITS_CHAD_200777 [Non GMO]</t>
+  </si>
+  <si>
     <t>HIGH ENERGY BISCUITS_MALI_200719 [Non GMO]</t>
   </si>
   <si>
@@ -936,6 +1014,9 @@
     <t>IODISED SALT_LIBERIA_200395 [Non GMO]</t>
   </si>
   <si>
+    <t>IODISED SALT_LIBERIA_200550 [Non GMO]</t>
+  </si>
+  <si>
     <t>IODISED SALT_MALI_200719 [Non GMO]</t>
   </si>
   <si>
@@ -1038,6 +1119,9 @@
     <t>PALMOLIEN OIL_LIBERIA_200395 [Non GMO]</t>
   </si>
   <si>
+    <t>PALMOLIEN OIL_LIBERIA_200550 [Non GMO]</t>
+  </si>
+  <si>
     <t>PALMOLIEN OIL_MALI_200719 [Non GMO]</t>
   </si>
   <si>
@@ -1050,6 +1134,9 @@
     <t>PALMOLIEN OIL_NIGER_200961 [Non GMO]</t>
   </si>
   <si>
+    <t>PALMOLIEN OIL_SENEGAL_200249 [Non GMO]</t>
+  </si>
+  <si>
     <t>PALMOLIEN OIL_SIERRA LEONE_200938 [Non GMO]</t>
   </si>
   <si>
@@ -1059,9 +1146,15 @@
     <t>PLUMPY DOZ_GAMBIA_200557 [Non GMO]</t>
   </si>
   <si>
+    <t>PLUMPY DOZ_GUINEA_200326 [Non GMO]</t>
+  </si>
+  <si>
     <t>PLUMPY DOZ_MALI_200719 [Non GMO]</t>
   </si>
   <si>
+    <t>PLUMPY DOZ_SENEGAL_200249 [Non GMO]</t>
+  </si>
+  <si>
     <t>SORGHUM/MILLET_CAMEROON_200777 [Non GMO]</t>
   </si>
   <si>
@@ -1131,12 +1224,18 @@
     <t>SPLIT YELLOW PEAS_GAMBIA_200327 [Non GMO]</t>
   </si>
   <si>
+    <t>SPLIT YELLOW PEAS_GUINEA-BISSAU_200846 [Non GMO]</t>
+  </si>
+  <si>
     <t>SPLIT YELLOW PEAS_GUINEA_200326 [Non GMO]</t>
   </si>
   <si>
     <t>SPLIT YELLOW PEAS_LIBERIA_200395 [Non GMO]</t>
   </si>
   <si>
+    <t>SPLIT YELLOW PEAS_LIBERIA_200550 [Non GMO]</t>
+  </si>
+  <si>
     <t>SPLIT YELLOW PEAS_MALI_200719 [Non GMO]</t>
   </si>
   <si>
@@ -1179,6 +1278,9 @@
     <t>SUPER CEREAL (CSB+) WITH SUGAR_GUINEA_200326 [Non GMO]</t>
   </si>
   <si>
+    <t>SUPER CEREAL (CSB+) WITH SUGAR_LIBERIA_200550 [Non GMO]</t>
+  </si>
+  <si>
     <t>SUPER CEREAL (CSB+) WITH SUGAR_MALI_200719 [Non GMO]</t>
   </si>
   <si>
@@ -1197,6 +1299,9 @@
     <t>SUPER CEREAL (CSB+) WITH SUGAR_NIGER_200961 [Non GMO]</t>
   </si>
   <si>
+    <t>SUPER CEREAL (CSB+) WITH SUGAR_SENEGAL_200249 [Non GMO]</t>
+  </si>
+  <si>
     <t>SUPER CEREAL (CSB+) WITH SUGAR_SENEGAL_200681 [Non GMO]</t>
   </si>
   <si>
@@ -1230,6 +1335,12 @@
     <t>SUPER CEREAL PLUS (CSB++)_CHAD_200777 [Non GMO]</t>
   </si>
   <si>
+    <t>SUPER CEREAL PLUS (CSB++)_CÔTE D'IVOIRE_200464 [Non GMO]</t>
+  </si>
+  <si>
+    <t>SUPER CEREAL PLUS (CSB++)_CÔTE D'IVOIRE_200960 [Non GMO]</t>
+  </si>
+  <si>
     <t>SUPER CEREAL PLUS (CSB++)_GUINEA-BISSAU_200846 [Non GMO]</t>
   </si>
   <si>
@@ -1333,6 +1444,9 @@
   </si>
   <si>
     <t>WHITE SUGAR_CHAD_200713 [Non GMO]</t>
+  </si>
+  <si>
+    <t>WHOLE GREEN LENTILS_MAURITANIA_200251 [Non GMO]</t>
   </si>
   <si>
     <t>WHOLE GREEN LENTILS_MAURITANIA_200640 [Non GMO]</t>
@@ -1862,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P416"/>
+  <dimension ref="A1:P454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2412,7 +2526,7 @@
       </c>
       <c r="H13" t="s"/>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J13" t="s"/>
       <c r="K13" t="n">
@@ -2456,7 +2570,7 @@
       </c>
       <c r="H14" t="s"/>
       <c r="I14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s"/>
       <c r="K14" t="n">
@@ -2500,7 +2614,7 @@
       </c>
       <c r="H15" t="s"/>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s"/>
       <c r="K15" t="n">
@@ -2544,7 +2658,7 @@
       </c>
       <c r="H16" t="s"/>
       <c r="I16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J16" t="s"/>
       <c r="K16" t="n">
@@ -2563,7 +2677,7 @@
         <v>33</v>
       </c>
       <c r="P16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2607,7 +2721,7 @@
         <v>33</v>
       </c>
       <c r="P17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2632,7 +2746,7 @@
       </c>
       <c r="H18" t="s"/>
       <c r="I18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J18" t="s"/>
       <c r="K18" t="n">
@@ -2676,7 +2790,7 @@
       </c>
       <c r="H19" t="s"/>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J19" t="s"/>
       <c r="K19" t="n">
@@ -2720,7 +2834,7 @@
       </c>
       <c r="H20" t="s"/>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s"/>
       <c r="K20" t="n">
@@ -2739,7 +2853,7 @@
         <v>33</v>
       </c>
       <c r="P20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2808,7 +2922,7 @@
       </c>
       <c r="H22" t="s"/>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J22" t="s"/>
       <c r="K22" t="n">
@@ -2827,7 +2941,7 @@
         <v>33</v>
       </c>
       <c r="P22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2852,7 +2966,7 @@
       </c>
       <c r="H23" t="s"/>
       <c r="I23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s"/>
       <c r="K23" t="n">
@@ -2896,7 +3010,7 @@
       </c>
       <c r="H24" t="s"/>
       <c r="I24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J24" t="s"/>
       <c r="K24" t="n">
@@ -2940,7 +3054,7 @@
       </c>
       <c r="H25" t="s"/>
       <c r="I25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J25" t="s"/>
       <c r="K25" t="n">
@@ -2984,7 +3098,7 @@
       </c>
       <c r="H26" t="s"/>
       <c r="I26" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J26" t="s"/>
       <c r="K26" t="n">
@@ -3003,7 +3117,7 @@
         <v>33</v>
       </c>
       <c r="P26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -3028,7 +3142,7 @@
       </c>
       <c r="H27" t="s"/>
       <c r="I27" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="J27" t="s"/>
       <c r="K27" t="n">
@@ -3072,7 +3186,7 @@
       </c>
       <c r="H28" t="s"/>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J28" t="s"/>
       <c r="K28" t="n">
@@ -3116,7 +3230,7 @@
       </c>
       <c r="H29" t="s"/>
       <c r="I29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J29" t="s"/>
       <c r="K29" t="n">
@@ -3160,7 +3274,7 @@
       </c>
       <c r="H30" t="s"/>
       <c r="I30" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J30" t="s"/>
       <c r="K30" t="n">
@@ -3179,7 +3293,7 @@
         <v>33</v>
       </c>
       <c r="P30" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3204,7 +3318,7 @@
       </c>
       <c r="H31" t="s"/>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J31" t="s"/>
       <c r="K31" t="n">
@@ -3248,7 +3362,7 @@
       </c>
       <c r="H32" t="s"/>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J32" t="s"/>
       <c r="K32" t="n">
@@ -3292,7 +3406,7 @@
       </c>
       <c r="H33" t="s"/>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s"/>
       <c r="K33" t="n">
@@ -3336,7 +3450,7 @@
       </c>
       <c r="H34" t="s"/>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J34" t="s"/>
       <c r="K34" t="n">
@@ -3380,7 +3494,7 @@
       </c>
       <c r="H35" t="s"/>
       <c r="I35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J35" t="s"/>
       <c r="K35" t="n">
@@ -3424,7 +3538,7 @@
       </c>
       <c r="H36" t="s"/>
       <c r="I36" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J36" t="s"/>
       <c r="K36" t="n">
@@ -3468,7 +3582,7 @@
       </c>
       <c r="H37" t="s"/>
       <c r="I37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J37" t="s"/>
       <c r="K37" t="n">
@@ -3512,7 +3626,7 @@
       </c>
       <c r="H38" t="s"/>
       <c r="I38" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J38" t="s"/>
       <c r="K38" t="n">
@@ -3531,7 +3645,7 @@
         <v>33</v>
       </c>
       <c r="P38" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3556,7 +3670,7 @@
       </c>
       <c r="H39" t="s"/>
       <c r="I39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J39" t="s"/>
       <c r="K39" t="n">
@@ -3619,7 +3733,7 @@
         <v>33</v>
       </c>
       <c r="P40" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3644,7 +3758,7 @@
       </c>
       <c r="H41" t="s"/>
       <c r="I41" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J41" t="s"/>
       <c r="K41" t="n">
@@ -3688,7 +3802,7 @@
       </c>
       <c r="H42" t="s"/>
       <c r="I42" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J42" t="s"/>
       <c r="K42" t="n">
@@ -3732,7 +3846,7 @@
       </c>
       <c r="H43" t="s"/>
       <c r="I43" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J43" t="s"/>
       <c r="K43" t="n">
@@ -3776,7 +3890,7 @@
       </c>
       <c r="H44" t="s"/>
       <c r="I44" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J44" t="s"/>
       <c r="K44" t="n">
@@ -3820,7 +3934,7 @@
       </c>
       <c r="H45" t="s"/>
       <c r="I45" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J45" t="s"/>
       <c r="K45" t="n">
@@ -3839,7 +3953,7 @@
         <v>33</v>
       </c>
       <c r="P45" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3864,7 +3978,7 @@
       </c>
       <c r="H46" t="s"/>
       <c r="I46" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J46" t="s"/>
       <c r="K46" t="n">
@@ -3908,7 +4022,7 @@
       </c>
       <c r="H47" t="s"/>
       <c r="I47" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="J47" t="s"/>
       <c r="K47" t="n">
@@ -3952,7 +4066,7 @@
       </c>
       <c r="H48" t="s"/>
       <c r="I48" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J48" t="s"/>
       <c r="K48" t="n">
@@ -3996,7 +4110,7 @@
       </c>
       <c r="H49" t="s"/>
       <c r="I49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J49" t="s"/>
       <c r="K49" t="n">
@@ -4015,7 +4129,7 @@
         <v>33</v>
       </c>
       <c r="P49" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -4040,7 +4154,7 @@
       </c>
       <c r="H50" t="s"/>
       <c r="I50" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J50" t="s"/>
       <c r="K50" t="n">
@@ -4084,7 +4198,7 @@
       </c>
       <c r="H51" t="s"/>
       <c r="I51" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="J51" t="s"/>
       <c r="K51" t="n">
@@ -4100,10 +4214,10 @@
         <v>30</v>
       </c>
       <c r="O51" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="P51" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4117,18 +4231,18 @@
         <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E52" t="s"/>
       <c r="F52" t="s">
         <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s"/>
       <c r="I52" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J52" t="s"/>
       <c r="K52" t="n">
@@ -4144,10 +4258,10 @@
         <v>30</v>
       </c>
       <c r="O52" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="P52" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4161,18 +4275,18 @@
         <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E53" t="s"/>
       <c r="F53" t="s">
         <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H53" t="s"/>
       <c r="I53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J53" t="s"/>
       <c r="K53" t="n">
@@ -4205,14 +4319,14 @@
         <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E54" t="s"/>
       <c r="F54" t="s">
         <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s"/>
       <c r="I54" t="s">
@@ -4232,7 +4346,7 @@
         <v>30</v>
       </c>
       <c r="O54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P54" t="s">
         <v>34</v>
@@ -4249,14 +4363,14 @@
         <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E55" t="s"/>
       <c r="F55" t="s">
         <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s"/>
       <c r="I55" t="s">
@@ -4276,7 +4390,7 @@
         <v>30</v>
       </c>
       <c r="O55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P55" t="s">
         <v>34</v>
@@ -4293,14 +4407,14 @@
         <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E56" t="s"/>
       <c r="F56" t="s">
         <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s"/>
       <c r="I56" t="s">
@@ -4320,7 +4434,7 @@
         <v>30</v>
       </c>
       <c r="O56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P56" t="s">
         <v>34</v>
@@ -4337,14 +4451,14 @@
         <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E57" t="s"/>
       <c r="F57" t="s">
         <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H57" t="s"/>
       <c r="I57" t="s">
@@ -4364,7 +4478,7 @@
         <v>30</v>
       </c>
       <c r="O57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" t="s">
         <v>34</v>
@@ -4381,14 +4495,14 @@
         <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E58" t="s"/>
       <c r="F58" t="s">
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H58" t="s"/>
       <c r="I58" t="s">
@@ -4408,7 +4522,7 @@
         <v>30</v>
       </c>
       <c r="O58" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P58" t="s">
         <v>34</v>
@@ -4425,18 +4539,18 @@
         <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E59" t="s"/>
       <c r="F59" t="s">
         <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H59" t="s"/>
       <c r="I59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J59" t="s"/>
       <c r="K59" t="n">
@@ -4452,7 +4566,7 @@
         <v>30</v>
       </c>
       <c r="O59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P59" t="s">
         <v>34</v>
@@ -4469,18 +4583,18 @@
         <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E60" t="s"/>
       <c r="F60" t="s">
         <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H60" t="s"/>
       <c r="I60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J60" t="s"/>
       <c r="K60" t="n">
@@ -4496,7 +4610,7 @@
         <v>30</v>
       </c>
       <c r="O60" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="P60" t="s">
         <v>34</v>
@@ -4513,18 +4627,18 @@
         <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E61" t="s"/>
       <c r="F61" t="s">
         <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H61" t="s"/>
       <c r="I61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J61" t="s"/>
       <c r="K61" t="n">
@@ -4540,7 +4654,7 @@
         <v>30</v>
       </c>
       <c r="O61" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P61" t="s">
         <v>34</v>
@@ -4557,18 +4671,18 @@
         <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E62" t="s"/>
       <c r="F62" t="s">
         <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H62" t="s"/>
       <c r="I62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J62" t="s"/>
       <c r="K62" t="n">
@@ -4584,7 +4698,7 @@
         <v>30</v>
       </c>
       <c r="O62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P62" t="s">
         <v>34</v>
@@ -4601,18 +4715,18 @@
         <v>30</v>
       </c>
       <c r="D63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E63" t="s"/>
       <c r="F63" t="s">
         <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H63" t="s"/>
       <c r="I63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J63" t="s"/>
       <c r="K63" t="n">
@@ -4628,7 +4742,7 @@
         <v>30</v>
       </c>
       <c r="O63" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P63" t="s">
         <v>34</v>
@@ -4645,18 +4759,18 @@
         <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E64" t="s"/>
       <c r="F64" t="s">
         <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H64" t="s"/>
       <c r="I64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J64" t="s"/>
       <c r="K64" t="n">
@@ -4689,18 +4803,18 @@
         <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E65" t="s"/>
       <c r="F65" t="s">
         <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H65" t="s"/>
       <c r="I65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J65" t="s"/>
       <c r="K65" t="n">
@@ -4716,7 +4830,7 @@
         <v>30</v>
       </c>
       <c r="O65" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="P65" t="s">
         <v>34</v>
@@ -4744,7 +4858,7 @@
       </c>
       <c r="H66" t="s"/>
       <c r="I66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J66" t="s"/>
       <c r="K66" t="n">
@@ -4760,7 +4874,7 @@
         <v>30</v>
       </c>
       <c r="O66" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="P66" t="s">
         <v>34</v>
@@ -4788,7 +4902,7 @@
       </c>
       <c r="H67" t="s"/>
       <c r="I67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J67" t="s"/>
       <c r="K67" t="n">
@@ -4804,7 +4918,7 @@
         <v>30</v>
       </c>
       <c r="O67" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P67" t="s">
         <v>34</v>
@@ -4832,7 +4946,7 @@
       </c>
       <c r="H68" t="s"/>
       <c r="I68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J68" t="s"/>
       <c r="K68" t="n">
@@ -4848,7 +4962,7 @@
         <v>30</v>
       </c>
       <c r="O68" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="P68" t="s">
         <v>34</v>
@@ -4865,14 +4979,14 @@
         <v>30</v>
       </c>
       <c r="D69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E69" t="s"/>
       <c r="F69" t="s">
         <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H69" t="s"/>
       <c r="I69" t="s">
@@ -4892,10 +5006,10 @@
         <v>30</v>
       </c>
       <c r="O69" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P69" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4909,18 +5023,18 @@
         <v>30</v>
       </c>
       <c r="D70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E70" t="s"/>
       <c r="F70" t="s">
         <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H70" t="s"/>
       <c r="I70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J70" t="s"/>
       <c r="K70" t="n">
@@ -4936,10 +5050,10 @@
         <v>30</v>
       </c>
       <c r="O70" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4953,18 +5067,18 @@
         <v>30</v>
       </c>
       <c r="D71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E71" t="s"/>
       <c r="F71" t="s">
         <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H71" t="s"/>
       <c r="I71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J71" t="s"/>
       <c r="K71" t="n">
@@ -4980,10 +5094,10 @@
         <v>30</v>
       </c>
       <c r="O71" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="P71" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -5008,7 +5122,7 @@
       </c>
       <c r="H72" t="s"/>
       <c r="I72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J72" t="s"/>
       <c r="K72" t="n">
@@ -5024,7 +5138,7 @@
         <v>30</v>
       </c>
       <c r="O72" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P72" t="s">
         <v>30</v>
@@ -5068,7 +5182,7 @@
         <v>30</v>
       </c>
       <c r="O73" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P73" t="s">
         <v>30</v>
@@ -5096,7 +5210,7 @@
       </c>
       <c r="H74" t="s"/>
       <c r="I74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J74" t="s"/>
       <c r="K74" t="n">
@@ -5112,7 +5226,7 @@
         <v>30</v>
       </c>
       <c r="O74" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P74" t="s">
         <v>30</v>
@@ -5140,7 +5254,7 @@
       </c>
       <c r="H75" t="s"/>
       <c r="I75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J75" t="s"/>
       <c r="K75" t="n">
@@ -5156,7 +5270,7 @@
         <v>30</v>
       </c>
       <c r="O75" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="P75" t="s">
         <v>30</v>
@@ -5184,7 +5298,7 @@
       </c>
       <c r="H76" t="s"/>
       <c r="I76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J76" t="s"/>
       <c r="K76" t="n">
@@ -5200,7 +5314,7 @@
         <v>30</v>
       </c>
       <c r="O76" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="P76" t="s">
         <v>30</v>
@@ -5244,7 +5358,7 @@
         <v>30</v>
       </c>
       <c r="O77" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="P77" t="s">
         <v>30</v>
@@ -5272,7 +5386,7 @@
       </c>
       <c r="H78" t="s"/>
       <c r="I78" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J78" t="s"/>
       <c r="K78" t="n">
@@ -5288,7 +5402,7 @@
         <v>30</v>
       </c>
       <c r="O78" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="P78" t="s">
         <v>30</v>
@@ -5316,7 +5430,7 @@
       </c>
       <c r="H79" t="s"/>
       <c r="I79" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J79" t="s"/>
       <c r="K79" t="n">
@@ -5332,7 +5446,7 @@
         <v>30</v>
       </c>
       <c r="O79" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="P79" t="s">
         <v>30</v>
@@ -5360,7 +5474,7 @@
       </c>
       <c r="H80" t="s"/>
       <c r="I80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J80" t="s"/>
       <c r="K80" t="n">
@@ -5376,7 +5490,7 @@
         <v>30</v>
       </c>
       <c r="O80" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="P80" t="s">
         <v>30</v>
@@ -5404,7 +5518,7 @@
       </c>
       <c r="H81" t="s"/>
       <c r="I81" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J81" t="s"/>
       <c r="K81" t="n">
@@ -5420,7 +5534,7 @@
         <v>30</v>
       </c>
       <c r="O81" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P81" t="s">
         <v>30</v>
@@ -5448,7 +5562,7 @@
       </c>
       <c r="H82" t="s"/>
       <c r="I82" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J82" t="s"/>
       <c r="K82" t="n">
@@ -5464,7 +5578,7 @@
         <v>30</v>
       </c>
       <c r="O82" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P82" t="s">
         <v>30</v>
@@ -5492,7 +5606,7 @@
       </c>
       <c r="H83" t="s"/>
       <c r="I83" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J83" t="s"/>
       <c r="K83" t="n">
@@ -5508,7 +5622,7 @@
         <v>30</v>
       </c>
       <c r="O83" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P83" t="s">
         <v>30</v>
@@ -5536,7 +5650,7 @@
       </c>
       <c r="H84" t="s"/>
       <c r="I84" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J84" t="s"/>
       <c r="K84" t="n">
@@ -5552,7 +5666,7 @@
         <v>30</v>
       </c>
       <c r="O84" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="P84" t="s">
         <v>30</v>
@@ -5580,7 +5694,7 @@
       </c>
       <c r="H85" t="s"/>
       <c r="I85" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J85" t="s"/>
       <c r="K85" t="n">
@@ -5596,7 +5710,7 @@
         <v>30</v>
       </c>
       <c r="O85" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P85" t="s">
         <v>30</v>
@@ -5624,7 +5738,7 @@
       </c>
       <c r="H86" t="s"/>
       <c r="I86" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J86" t="s"/>
       <c r="K86" t="n">
@@ -5640,7 +5754,7 @@
         <v>30</v>
       </c>
       <c r="O86" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="P86" t="s">
         <v>30</v>
@@ -5668,7 +5782,7 @@
       </c>
       <c r="H87" t="s"/>
       <c r="I87" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J87" t="s"/>
       <c r="K87" t="n">
@@ -5684,7 +5798,7 @@
         <v>30</v>
       </c>
       <c r="O87" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P87" t="s">
         <v>30</v>
@@ -5712,7 +5826,7 @@
       </c>
       <c r="H88" t="s"/>
       <c r="I88" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J88" t="s"/>
       <c r="K88" t="n">
@@ -5728,7 +5842,7 @@
         <v>30</v>
       </c>
       <c r="O88" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="P88" t="s">
         <v>30</v>
@@ -5756,7 +5870,7 @@
       </c>
       <c r="H89" t="s"/>
       <c r="I89" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J89" t="s"/>
       <c r="K89" t="n">
@@ -5772,7 +5886,7 @@
         <v>30</v>
       </c>
       <c r="O89" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="P89" t="s">
         <v>30</v>
@@ -5800,7 +5914,7 @@
       </c>
       <c r="H90" t="s"/>
       <c r="I90" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J90" t="s"/>
       <c r="K90" t="n">
@@ -5816,7 +5930,7 @@
         <v>30</v>
       </c>
       <c r="O90" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P90" t="s">
         <v>30</v>
@@ -5844,7 +5958,7 @@
       </c>
       <c r="H91" t="s"/>
       <c r="I91" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J91" t="s"/>
       <c r="K91" t="n">
@@ -5860,7 +5974,7 @@
         <v>30</v>
       </c>
       <c r="O91" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="P91" t="s">
         <v>30</v>
@@ -5888,7 +6002,7 @@
       </c>
       <c r="H92" t="s"/>
       <c r="I92" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J92" t="s"/>
       <c r="K92" t="n">
@@ -5904,7 +6018,7 @@
         <v>30</v>
       </c>
       <c r="O92" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P92" t="s">
         <v>30</v>
@@ -5932,7 +6046,7 @@
       </c>
       <c r="H93" t="s"/>
       <c r="I93" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J93" t="s"/>
       <c r="K93" t="n">
@@ -5948,7 +6062,7 @@
         <v>30</v>
       </c>
       <c r="O93" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="P93" t="s">
         <v>30</v>
@@ -5976,7 +6090,7 @@
       </c>
       <c r="H94" t="s"/>
       <c r="I94" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J94" t="s"/>
       <c r="K94" t="n">
@@ -5992,7 +6106,7 @@
         <v>30</v>
       </c>
       <c r="O94" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="P94" t="s">
         <v>30</v>
@@ -6020,7 +6134,7 @@
       </c>
       <c r="H95" t="s"/>
       <c r="I95" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J95" t="s"/>
       <c r="K95" t="n">
@@ -6036,7 +6150,7 @@
         <v>30</v>
       </c>
       <c r="O95" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P95" t="s">
         <v>30</v>
@@ -6064,7 +6178,7 @@
       </c>
       <c r="H96" t="s"/>
       <c r="I96" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J96" t="s"/>
       <c r="K96" t="n">
@@ -6080,7 +6194,7 @@
         <v>30</v>
       </c>
       <c r="O96" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P96" t="s">
         <v>30</v>
@@ -6108,7 +6222,7 @@
       </c>
       <c r="H97" t="s"/>
       <c r="I97" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J97" t="s"/>
       <c r="K97" t="n">
@@ -6124,7 +6238,7 @@
         <v>30</v>
       </c>
       <c r="O97" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P97" t="s">
         <v>30</v>
@@ -6152,7 +6266,7 @@
       </c>
       <c r="H98" t="s"/>
       <c r="I98" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J98" t="s"/>
       <c r="K98" t="n">
@@ -6168,7 +6282,7 @@
         <v>30</v>
       </c>
       <c r="O98" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P98" t="s">
         <v>30</v>
@@ -6196,7 +6310,7 @@
       </c>
       <c r="H99" t="s"/>
       <c r="I99" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J99" t="s"/>
       <c r="K99" t="n">
@@ -6212,7 +6326,7 @@
         <v>30</v>
       </c>
       <c r="O99" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="P99" t="s">
         <v>30</v>
@@ -6240,7 +6354,7 @@
       </c>
       <c r="H100" t="s"/>
       <c r="I100" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J100" t="s"/>
       <c r="K100" t="n">
@@ -6256,7 +6370,7 @@
         <v>30</v>
       </c>
       <c r="O100" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P100" t="s">
         <v>30</v>
@@ -6284,7 +6398,7 @@
       </c>
       <c r="H101" t="s"/>
       <c r="I101" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J101" t="s"/>
       <c r="K101" t="n">
@@ -6300,7 +6414,7 @@
         <v>30</v>
       </c>
       <c r="O101" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P101" t="s">
         <v>30</v>
@@ -6328,7 +6442,7 @@
       </c>
       <c r="H102" t="s"/>
       <c r="I102" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J102" t="s"/>
       <c r="K102" t="n">
@@ -6344,7 +6458,7 @@
         <v>30</v>
       </c>
       <c r="O102" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="P102" t="s">
         <v>30</v>
@@ -6372,7 +6486,7 @@
       </c>
       <c r="H103" t="s"/>
       <c r="I103" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J103" t="s"/>
       <c r="K103" t="n">
@@ -6388,7 +6502,7 @@
         <v>30</v>
       </c>
       <c r="O103" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="P103" t="s">
         <v>30</v>
@@ -6416,7 +6530,7 @@
       </c>
       <c r="H104" t="s"/>
       <c r="I104" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J104" t="s"/>
       <c r="K104" t="n">
@@ -6432,7 +6546,7 @@
         <v>30</v>
       </c>
       <c r="O104" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P104" t="s">
         <v>30</v>
@@ -6460,7 +6574,7 @@
       </c>
       <c r="H105" t="s"/>
       <c r="I105" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J105" t="s"/>
       <c r="K105" t="n">
@@ -6476,7 +6590,7 @@
         <v>30</v>
       </c>
       <c r="O105" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P105" t="s">
         <v>30</v>
@@ -6520,7 +6634,7 @@
         <v>30</v>
       </c>
       <c r="O106" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="P106" t="s">
         <v>30</v>
@@ -6564,7 +6678,7 @@
         <v>30</v>
       </c>
       <c r="O107" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="P107" t="s">
         <v>30</v>
@@ -6581,14 +6695,14 @@
         <v>30</v>
       </c>
       <c r="D108" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E108" t="s"/>
       <c r="F108" t="s">
         <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H108" t="s"/>
       <c r="I108" t="s">
@@ -6608,7 +6722,7 @@
         <v>30</v>
       </c>
       <c r="O108" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="P108" t="s">
         <v>30</v>
@@ -6625,14 +6739,14 @@
         <v>30</v>
       </c>
       <c r="D109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E109" t="s"/>
       <c r="F109" t="s">
         <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H109" t="s"/>
       <c r="I109" t="s">
@@ -6652,7 +6766,7 @@
         <v>30</v>
       </c>
       <c r="O109" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P109" t="s">
         <v>30</v>
@@ -6669,14 +6783,14 @@
         <v>30</v>
       </c>
       <c r="D110" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E110" t="s"/>
       <c r="F110" t="s">
         <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H110" t="s"/>
       <c r="I110" t="s">
@@ -6696,7 +6810,7 @@
         <v>30</v>
       </c>
       <c r="O110" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P110" t="s">
         <v>30</v>
@@ -6713,14 +6827,14 @@
         <v>30</v>
       </c>
       <c r="D111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E111" t="s"/>
       <c r="F111" t="s">
         <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H111" t="s"/>
       <c r="I111" t="s">
@@ -6740,7 +6854,7 @@
         <v>30</v>
       </c>
       <c r="O111" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P111" t="s">
         <v>30</v>
@@ -6757,14 +6871,14 @@
         <v>30</v>
       </c>
       <c r="D112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E112" t="s"/>
       <c r="F112" t="s">
         <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H112" t="s"/>
       <c r="I112" t="s">
@@ -6784,7 +6898,7 @@
         <v>30</v>
       </c>
       <c r="O112" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P112" t="s">
         <v>30</v>
@@ -6801,14 +6915,14 @@
         <v>30</v>
       </c>
       <c r="D113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E113" t="s"/>
       <c r="F113" t="s">
         <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H113" t="s"/>
       <c r="I113" t="s">
@@ -6828,7 +6942,7 @@
         <v>30</v>
       </c>
       <c r="O113" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="P113" t="s">
         <v>30</v>
@@ -6845,14 +6959,14 @@
         <v>30</v>
       </c>
       <c r="D114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E114" t="s"/>
       <c r="F114" t="s">
         <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H114" t="s"/>
       <c r="I114" t="s">
@@ -6889,18 +7003,18 @@
         <v>30</v>
       </c>
       <c r="D115" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E115" t="s"/>
       <c r="F115" t="s">
         <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H115" t="s"/>
       <c r="I115" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J115" t="s"/>
       <c r="K115" t="n">
@@ -6916,7 +7030,7 @@
         <v>30</v>
       </c>
       <c r="O115" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P115" t="s">
         <v>30</v>
@@ -6933,18 +7047,18 @@
         <v>30</v>
       </c>
       <c r="D116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E116" t="s"/>
       <c r="F116" t="s">
         <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H116" t="s"/>
       <c r="I116" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J116" t="s"/>
       <c r="K116" t="n">
@@ -6960,7 +7074,7 @@
         <v>30</v>
       </c>
       <c r="O116" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="P116" t="s">
         <v>30</v>
@@ -6988,7 +7102,7 @@
       </c>
       <c r="H117" t="s"/>
       <c r="I117" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J117" t="s"/>
       <c r="K117" t="n">
@@ -7004,7 +7118,7 @@
         <v>30</v>
       </c>
       <c r="O117" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="P117" t="s">
         <v>30</v>
@@ -7032,7 +7146,7 @@
       </c>
       <c r="H118" t="s"/>
       <c r="I118" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J118" t="s"/>
       <c r="K118" t="n">
@@ -7048,7 +7162,7 @@
         <v>30</v>
       </c>
       <c r="O118" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P118" t="s">
         <v>30</v>
@@ -7076,7 +7190,7 @@
       </c>
       <c r="H119" t="s"/>
       <c r="I119" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J119" t="s"/>
       <c r="K119" t="n">
@@ -7092,7 +7206,7 @@
         <v>30</v>
       </c>
       <c r="O119" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="P119" t="s">
         <v>30</v>
@@ -7120,7 +7234,7 @@
       </c>
       <c r="H120" t="s"/>
       <c r="I120" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J120" t="s"/>
       <c r="K120" t="n">
@@ -7136,7 +7250,7 @@
         <v>30</v>
       </c>
       <c r="O120" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P120" t="s">
         <v>30</v>
@@ -7164,7 +7278,7 @@
       </c>
       <c r="H121" t="s"/>
       <c r="I121" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J121" t="s"/>
       <c r="K121" t="n">
@@ -7180,7 +7294,7 @@
         <v>30</v>
       </c>
       <c r="O121" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P121" t="s">
         <v>30</v>
@@ -7208,7 +7322,7 @@
       </c>
       <c r="H122" t="s"/>
       <c r="I122" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J122" t="s"/>
       <c r="K122" t="n">
@@ -7224,7 +7338,7 @@
         <v>30</v>
       </c>
       <c r="O122" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P122" t="s">
         <v>30</v>
@@ -7252,7 +7366,7 @@
       </c>
       <c r="H123" t="s"/>
       <c r="I123" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J123" t="s"/>
       <c r="K123" t="n">
@@ -7268,7 +7382,7 @@
         <v>30</v>
       </c>
       <c r="O123" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="P123" t="s">
         <v>30</v>
@@ -7296,7 +7410,7 @@
       </c>
       <c r="H124" t="s"/>
       <c r="I124" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J124" t="s"/>
       <c r="K124" t="n">
@@ -7312,7 +7426,7 @@
         <v>30</v>
       </c>
       <c r="O124" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="P124" t="s">
         <v>30</v>
@@ -7340,7 +7454,7 @@
       </c>
       <c r="H125" t="s"/>
       <c r="I125" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J125" t="s"/>
       <c r="K125" t="n">
@@ -7356,7 +7470,7 @@
         <v>30</v>
       </c>
       <c r="O125" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P125" t="s">
         <v>30</v>
@@ -7384,7 +7498,7 @@
       </c>
       <c r="H126" t="s"/>
       <c r="I126" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J126" t="s"/>
       <c r="K126" t="n">
@@ -7400,7 +7514,7 @@
         <v>30</v>
       </c>
       <c r="O126" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="P126" t="s">
         <v>30</v>
@@ -7428,7 +7542,7 @@
       </c>
       <c r="H127" t="s"/>
       <c r="I127" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J127" t="s"/>
       <c r="K127" t="n">
@@ -7444,7 +7558,7 @@
         <v>30</v>
       </c>
       <c r="O127" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P127" t="s">
         <v>30</v>
@@ -7472,7 +7586,7 @@
       </c>
       <c r="H128" t="s"/>
       <c r="I128" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J128" t="s"/>
       <c r="K128" t="n">
@@ -7488,7 +7602,7 @@
         <v>30</v>
       </c>
       <c r="O128" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P128" t="s">
         <v>30</v>
@@ -7516,7 +7630,7 @@
       </c>
       <c r="H129" t="s"/>
       <c r="I129" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J129" t="s"/>
       <c r="K129" t="n">
@@ -7532,7 +7646,7 @@
         <v>30</v>
       </c>
       <c r="O129" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="P129" t="s">
         <v>30</v>
@@ -7560,7 +7674,7 @@
       </c>
       <c r="H130" t="s"/>
       <c r="I130" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J130" t="s"/>
       <c r="K130" t="n">
@@ -7576,7 +7690,7 @@
         <v>30</v>
       </c>
       <c r="O130" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P130" t="s">
         <v>30</v>
@@ -7604,7 +7718,7 @@
       </c>
       <c r="H131" t="s"/>
       <c r="I131" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J131" t="s"/>
       <c r="K131" t="n">
@@ -7620,7 +7734,7 @@
         <v>30</v>
       </c>
       <c r="O131" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="P131" t="s">
         <v>30</v>
@@ -7637,14 +7751,14 @@
         <v>30</v>
       </c>
       <c r="D132" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E132" t="s"/>
       <c r="F132" t="s">
         <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H132" t="s"/>
       <c r="I132" t="s">
@@ -7664,10 +7778,10 @@
         <v>30</v>
       </c>
       <c r="O132" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P132" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7681,14 +7795,14 @@
         <v>30</v>
       </c>
       <c r="D133" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E133" t="s"/>
       <c r="F133" t="s">
         <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H133" t="s"/>
       <c r="I133" t="s">
@@ -7708,10 +7822,10 @@
         <v>30</v>
       </c>
       <c r="O133" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P133" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -7725,14 +7839,14 @@
         <v>30</v>
       </c>
       <c r="D134" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E134" t="s"/>
       <c r="F134" t="s">
         <v>30</v>
       </c>
       <c r="G134" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H134" t="s"/>
       <c r="I134" t="s">
@@ -7752,10 +7866,10 @@
         <v>30</v>
       </c>
       <c r="O134" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="P134" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -7769,14 +7883,14 @@
         <v>30</v>
       </c>
       <c r="D135" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E135" t="s"/>
       <c r="F135" t="s">
         <v>30</v>
       </c>
       <c r="G135" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H135" t="s"/>
       <c r="I135" t="s">
@@ -7796,10 +7910,10 @@
         <v>30</v>
       </c>
       <c r="O135" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P135" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -7813,14 +7927,14 @@
         <v>30</v>
       </c>
       <c r="D136" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E136" t="s"/>
       <c r="F136" t="s">
         <v>30</v>
       </c>
       <c r="G136" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H136" t="s"/>
       <c r="I136" t="s">
@@ -7840,10 +7954,10 @@
         <v>30</v>
       </c>
       <c r="O136" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="P136" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -7857,14 +7971,14 @@
         <v>30</v>
       </c>
       <c r="D137" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E137" t="s"/>
       <c r="F137" t="s">
         <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H137" t="s"/>
       <c r="I137" t="s">
@@ -7884,10 +7998,10 @@
         <v>30</v>
       </c>
       <c r="O137" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P137" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -7901,14 +8015,14 @@
         <v>30</v>
       </c>
       <c r="D138" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E138" t="s"/>
       <c r="F138" t="s">
         <v>30</v>
       </c>
       <c r="G138" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H138" t="s"/>
       <c r="I138" t="s">
@@ -7928,10 +8042,10 @@
         <v>30</v>
       </c>
       <c r="O138" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P138" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -7945,14 +8059,14 @@
         <v>30</v>
       </c>
       <c r="D139" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E139" t="s"/>
       <c r="F139" t="s">
         <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H139" t="s"/>
       <c r="I139" t="s">
@@ -7972,10 +8086,10 @@
         <v>30</v>
       </c>
       <c r="O139" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P139" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -7989,18 +8103,18 @@
         <v>30</v>
       </c>
       <c r="D140" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E140" t="s"/>
       <c r="F140" t="s">
         <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H140" t="s"/>
       <c r="I140" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J140" t="s"/>
       <c r="K140" t="n">
@@ -8016,10 +8130,10 @@
         <v>30</v>
       </c>
       <c r="O140" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="P140" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8033,18 +8147,18 @@
         <v>30</v>
       </c>
       <c r="D141" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E141" t="s"/>
       <c r="F141" t="s">
         <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H141" t="s"/>
       <c r="I141" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J141" t="s"/>
       <c r="K141" t="n">
@@ -8060,10 +8174,10 @@
         <v>30</v>
       </c>
       <c r="O141" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P141" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8077,14 +8191,14 @@
         <v>30</v>
       </c>
       <c r="D142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E142" t="s"/>
       <c r="F142" t="s">
         <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H142" t="s"/>
       <c r="I142" t="s">
@@ -8104,7 +8218,7 @@
         <v>30</v>
       </c>
       <c r="O142" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="P142" t="s">
         <v>30</v>
@@ -8121,14 +8235,14 @@
         <v>30</v>
       </c>
       <c r="D143" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E143" t="s"/>
       <c r="F143" t="s">
         <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H143" t="s"/>
       <c r="I143" t="s">
@@ -8148,7 +8262,7 @@
         <v>30</v>
       </c>
       <c r="O143" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="P143" t="s">
         <v>30</v>
@@ -8192,7 +8306,7 @@
         <v>30</v>
       </c>
       <c r="O144" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P144" t="s">
         <v>30</v>
@@ -8236,10 +8350,10 @@
         <v>30</v>
       </c>
       <c r="O145" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="P145" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8280,10 +8394,10 @@
         <v>30</v>
       </c>
       <c r="O146" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P146" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8324,10 +8438,10 @@
         <v>30</v>
       </c>
       <c r="O147" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="P147" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8368,10 +8482,10 @@
         <v>30</v>
       </c>
       <c r="O148" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="P148" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8412,10 +8526,10 @@
         <v>30</v>
       </c>
       <c r="O149" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="P149" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8456,10 +8570,10 @@
         <v>30</v>
       </c>
       <c r="O150" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P150" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8500,10 +8614,10 @@
         <v>30</v>
       </c>
       <c r="O151" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P151" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8544,10 +8658,10 @@
         <v>30</v>
       </c>
       <c r="O152" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P152" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -8588,10 +8702,10 @@
         <v>30</v>
       </c>
       <c r="O153" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P153" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -8632,10 +8746,10 @@
         <v>30</v>
       </c>
       <c r="O154" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P154" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -8660,7 +8774,7 @@
       </c>
       <c r="H155" t="s"/>
       <c r="I155" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J155" t="s"/>
       <c r="K155" t="n">
@@ -8676,7 +8790,7 @@
         <v>30</v>
       </c>
       <c r="O155" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="P155" t="s">
         <v>30</v>
@@ -8704,7 +8818,7 @@
       </c>
       <c r="H156" t="s"/>
       <c r="I156" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J156" t="s"/>
       <c r="K156" t="n">
@@ -8720,7 +8834,7 @@
         <v>30</v>
       </c>
       <c r="O156" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="P156" t="s">
         <v>30</v>
@@ -8748,7 +8862,7 @@
       </c>
       <c r="H157" t="s"/>
       <c r="I157" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J157" t="s"/>
       <c r="K157" t="n">
@@ -8764,7 +8878,7 @@
         <v>30</v>
       </c>
       <c r="O157" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="P157" t="s">
         <v>30</v>
@@ -8792,7 +8906,7 @@
       </c>
       <c r="H158" t="s"/>
       <c r="I158" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J158" t="s"/>
       <c r="K158" t="n">
@@ -8808,7 +8922,7 @@
         <v>30</v>
       </c>
       <c r="O158" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P158" t="s">
         <v>30</v>
@@ -8836,7 +8950,7 @@
       </c>
       <c r="H159" t="s"/>
       <c r="I159" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J159" t="s"/>
       <c r="K159" t="n">
@@ -8852,7 +8966,7 @@
         <v>30</v>
       </c>
       <c r="O159" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="P159" t="s">
         <v>30</v>
@@ -8880,7 +8994,7 @@
       </c>
       <c r="H160" t="s"/>
       <c r="I160" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J160" t="s"/>
       <c r="K160" t="n">
@@ -8896,7 +9010,7 @@
         <v>30</v>
       </c>
       <c r="O160" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="P160" t="s">
         <v>30</v>
@@ -8924,7 +9038,7 @@
       </c>
       <c r="H161" t="s"/>
       <c r="I161" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J161" t="s"/>
       <c r="K161" t="n">
@@ -8940,7 +9054,7 @@
         <v>30</v>
       </c>
       <c r="O161" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P161" t="s">
         <v>30</v>
@@ -8968,7 +9082,7 @@
       </c>
       <c r="H162" t="s"/>
       <c r="I162" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J162" t="s"/>
       <c r="K162" t="n">
@@ -8984,7 +9098,7 @@
         <v>30</v>
       </c>
       <c r="O162" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P162" t="s">
         <v>30</v>
@@ -9012,7 +9126,7 @@
       </c>
       <c r="H163" t="s"/>
       <c r="I163" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J163" t="s"/>
       <c r="K163" t="n">
@@ -9028,7 +9142,7 @@
         <v>30</v>
       </c>
       <c r="O163" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="P163" t="s">
         <v>30</v>
@@ -9056,7 +9170,7 @@
       </c>
       <c r="H164" t="s"/>
       <c r="I164" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J164" t="s"/>
       <c r="K164" t="n">
@@ -9072,7 +9186,7 @@
         <v>30</v>
       </c>
       <c r="O164" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="P164" t="s">
         <v>30</v>
@@ -9100,7 +9214,7 @@
       </c>
       <c r="H165" t="s"/>
       <c r="I165" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J165" t="s"/>
       <c r="K165" t="n">
@@ -9116,7 +9230,7 @@
         <v>30</v>
       </c>
       <c r="O165" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P165" t="s">
         <v>30</v>
@@ -9144,7 +9258,7 @@
       </c>
       <c r="H166" t="s"/>
       <c r="I166" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J166" t="s"/>
       <c r="K166" t="n">
@@ -9160,7 +9274,7 @@
         <v>30</v>
       </c>
       <c r="O166" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P166" t="s">
         <v>30</v>
@@ -9188,7 +9302,7 @@
       </c>
       <c r="H167" t="s"/>
       <c r="I167" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J167" t="s"/>
       <c r="K167" t="n">
@@ -9204,7 +9318,7 @@
         <v>30</v>
       </c>
       <c r="O167" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="P167" t="s">
         <v>30</v>
@@ -9232,7 +9346,7 @@
       </c>
       <c r="H168" t="s"/>
       <c r="I168" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J168" t="s"/>
       <c r="K168" t="n">
@@ -9248,7 +9362,7 @@
         <v>30</v>
       </c>
       <c r="O168" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P168" t="s">
         <v>30</v>
@@ -9276,7 +9390,7 @@
       </c>
       <c r="H169" t="s"/>
       <c r="I169" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J169" t="s"/>
       <c r="K169" t="n">
@@ -9292,7 +9406,7 @@
         <v>30</v>
       </c>
       <c r="O169" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="P169" t="s">
         <v>30</v>
@@ -9320,7 +9434,7 @@
       </c>
       <c r="H170" t="s"/>
       <c r="I170" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J170" t="s"/>
       <c r="K170" t="n">
@@ -9336,7 +9450,7 @@
         <v>30</v>
       </c>
       <c r="O170" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="P170" t="s">
         <v>30</v>
@@ -9364,7 +9478,7 @@
       </c>
       <c r="H171" t="s"/>
       <c r="I171" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J171" t="s"/>
       <c r="K171" t="n">
@@ -9380,7 +9494,7 @@
         <v>30</v>
       </c>
       <c r="O171" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="P171" t="s">
         <v>30</v>
@@ -9408,7 +9522,7 @@
       </c>
       <c r="H172" t="s"/>
       <c r="I172" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J172" t="s"/>
       <c r="K172" t="n">
@@ -9424,7 +9538,7 @@
         <v>30</v>
       </c>
       <c r="O172" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="P172" t="s">
         <v>30</v>
@@ -9452,7 +9566,7 @@
       </c>
       <c r="H173" t="s"/>
       <c r="I173" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J173" t="s"/>
       <c r="K173" t="n">
@@ -9468,7 +9582,7 @@
         <v>30</v>
       </c>
       <c r="O173" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P173" t="s">
         <v>30</v>
@@ -9496,7 +9610,7 @@
       </c>
       <c r="H174" t="s"/>
       <c r="I174" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J174" t="s"/>
       <c r="K174" t="n">
@@ -9512,7 +9626,7 @@
         <v>30</v>
       </c>
       <c r="O174" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="P174" t="s">
         <v>30</v>
@@ -9540,7 +9654,7 @@
       </c>
       <c r="H175" t="s"/>
       <c r="I175" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J175" t="s"/>
       <c r="K175" t="n">
@@ -9556,7 +9670,7 @@
         <v>30</v>
       </c>
       <c r="O175" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="P175" t="s">
         <v>30</v>
@@ -9584,7 +9698,7 @@
       </c>
       <c r="H176" t="s"/>
       <c r="I176" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J176" t="s"/>
       <c r="K176" t="n">
@@ -9600,7 +9714,7 @@
         <v>30</v>
       </c>
       <c r="O176" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P176" t="s">
         <v>30</v>
@@ -9628,7 +9742,7 @@
       </c>
       <c r="H177" t="s"/>
       <c r="I177" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J177" t="s"/>
       <c r="K177" t="n">
@@ -9644,7 +9758,7 @@
         <v>30</v>
       </c>
       <c r="O177" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="P177" t="s">
         <v>30</v>
@@ -9672,7 +9786,7 @@
       </c>
       <c r="H178" t="s"/>
       <c r="I178" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J178" t="s"/>
       <c r="K178" t="n">
@@ -9688,7 +9802,7 @@
         <v>30</v>
       </c>
       <c r="O178" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="P178" t="s">
         <v>30</v>
@@ -9716,7 +9830,7 @@
       </c>
       <c r="H179" t="s"/>
       <c r="I179" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J179" t="s"/>
       <c r="K179" t="n">
@@ -9732,7 +9846,7 @@
         <v>30</v>
       </c>
       <c r="O179" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P179" t="s">
         <v>30</v>
@@ -9760,7 +9874,7 @@
       </c>
       <c r="H180" t="s"/>
       <c r="I180" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J180" t="s"/>
       <c r="K180" t="n">
@@ -9776,7 +9890,7 @@
         <v>30</v>
       </c>
       <c r="O180" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="P180" t="s">
         <v>30</v>
@@ -9804,7 +9918,7 @@
       </c>
       <c r="H181" t="s"/>
       <c r="I181" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J181" t="s"/>
       <c r="K181" t="n">
@@ -9820,7 +9934,7 @@
         <v>30</v>
       </c>
       <c r="O181" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="P181" t="s">
         <v>30</v>
@@ -9848,7 +9962,7 @@
       </c>
       <c r="H182" t="s"/>
       <c r="I182" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J182" t="s"/>
       <c r="K182" t="n">
@@ -9864,7 +9978,7 @@
         <v>30</v>
       </c>
       <c r="O182" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="P182" t="s">
         <v>30</v>
@@ -9892,7 +10006,7 @@
       </c>
       <c r="H183" t="s"/>
       <c r="I183" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J183" t="s"/>
       <c r="K183" t="n">
@@ -9908,7 +10022,7 @@
         <v>30</v>
       </c>
       <c r="O183" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="P183" t="s">
         <v>30</v>
@@ -9936,7 +10050,7 @@
       </c>
       <c r="H184" t="s"/>
       <c r="I184" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J184" t="s"/>
       <c r="K184" t="n">
@@ -9952,7 +10066,7 @@
         <v>30</v>
       </c>
       <c r="O184" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P184" t="s">
         <v>30</v>
@@ -9980,7 +10094,7 @@
       </c>
       <c r="H185" t="s"/>
       <c r="I185" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J185" t="s"/>
       <c r="K185" t="n">
@@ -9996,7 +10110,7 @@
         <v>30</v>
       </c>
       <c r="O185" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="P185" t="s">
         <v>30</v>
@@ -10024,7 +10138,7 @@
       </c>
       <c r="H186" t="s"/>
       <c r="I186" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J186" t="s"/>
       <c r="K186" t="n">
@@ -10040,7 +10154,7 @@
         <v>30</v>
       </c>
       <c r="O186" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="P186" t="s">
         <v>30</v>
@@ -10068,7 +10182,7 @@
       </c>
       <c r="H187" t="s"/>
       <c r="I187" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J187" t="s"/>
       <c r="K187" t="n">
@@ -10084,7 +10198,7 @@
         <v>30</v>
       </c>
       <c r="O187" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="P187" t="s">
         <v>30</v>
@@ -10112,7 +10226,7 @@
       </c>
       <c r="H188" t="s"/>
       <c r="I188" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J188" t="s"/>
       <c r="K188" t="n">
@@ -10128,7 +10242,7 @@
         <v>30</v>
       </c>
       <c r="O188" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="P188" t="s">
         <v>30</v>
@@ -10156,7 +10270,7 @@
       </c>
       <c r="H189" t="s"/>
       <c r="I189" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J189" t="s"/>
       <c r="K189" t="n">
@@ -10172,7 +10286,7 @@
         <v>30</v>
       </c>
       <c r="O189" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="P189" t="s">
         <v>30</v>
@@ -10200,7 +10314,7 @@
       </c>
       <c r="H190" t="s"/>
       <c r="I190" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J190" t="s"/>
       <c r="K190" t="n">
@@ -10216,7 +10330,7 @@
         <v>30</v>
       </c>
       <c r="O190" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="P190" t="s">
         <v>30</v>
@@ -10244,7 +10358,7 @@
       </c>
       <c r="H191" t="s"/>
       <c r="I191" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J191" t="s"/>
       <c r="K191" t="n">
@@ -10260,7 +10374,7 @@
         <v>30</v>
       </c>
       <c r="O191" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="P191" t="s">
         <v>30</v>
@@ -10288,7 +10402,7 @@
       </c>
       <c r="H192" t="s"/>
       <c r="I192" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J192" t="s"/>
       <c r="K192" t="n">
@@ -10304,7 +10418,7 @@
         <v>30</v>
       </c>
       <c r="O192" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="P192" t="s">
         <v>30</v>
@@ -10332,7 +10446,7 @@
       </c>
       <c r="H193" t="s"/>
       <c r="I193" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J193" t="s"/>
       <c r="K193" t="n">
@@ -10348,7 +10462,7 @@
         <v>30</v>
       </c>
       <c r="O193" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="P193" t="s">
         <v>30</v>
@@ -10376,7 +10490,7 @@
       </c>
       <c r="H194" t="s"/>
       <c r="I194" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J194" t="s"/>
       <c r="K194" t="n">
@@ -10392,7 +10506,7 @@
         <v>30</v>
       </c>
       <c r="O194" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="P194" t="s">
         <v>30</v>
@@ -10420,7 +10534,7 @@
       </c>
       <c r="H195" t="s"/>
       <c r="I195" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J195" t="s"/>
       <c r="K195" t="n">
@@ -10436,7 +10550,7 @@
         <v>30</v>
       </c>
       <c r="O195" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P195" t="s">
         <v>30</v>
@@ -10464,7 +10578,7 @@
       </c>
       <c r="H196" t="s"/>
       <c r="I196" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J196" t="s"/>
       <c r="K196" t="n">
@@ -10480,7 +10594,7 @@
         <v>30</v>
       </c>
       <c r="O196" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P196" t="s">
         <v>30</v>
@@ -10508,7 +10622,7 @@
       </c>
       <c r="H197" t="s"/>
       <c r="I197" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J197" t="s"/>
       <c r="K197" t="n">
@@ -10524,7 +10638,7 @@
         <v>30</v>
       </c>
       <c r="O197" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="P197" t="s">
         <v>30</v>
@@ -10552,7 +10666,7 @@
       </c>
       <c r="H198" t="s"/>
       <c r="I198" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J198" t="s"/>
       <c r="K198" t="n">
@@ -10568,7 +10682,7 @@
         <v>30</v>
       </c>
       <c r="O198" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="P198" t="s">
         <v>30</v>
@@ -10596,7 +10710,7 @@
       </c>
       <c r="H199" t="s"/>
       <c r="I199" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J199" t="s"/>
       <c r="K199" t="n">
@@ -10612,7 +10726,7 @@
         <v>30</v>
       </c>
       <c r="O199" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="P199" t="s">
         <v>30</v>
@@ -10640,7 +10754,7 @@
       </c>
       <c r="H200" t="s"/>
       <c r="I200" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J200" t="s"/>
       <c r="K200" t="n">
@@ -10656,7 +10770,7 @@
         <v>30</v>
       </c>
       <c r="O200" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="P200" t="s">
         <v>30</v>
@@ -10684,7 +10798,7 @@
       </c>
       <c r="H201" t="s"/>
       <c r="I201" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J201" t="s"/>
       <c r="K201" t="n">
@@ -10700,7 +10814,7 @@
         <v>30</v>
       </c>
       <c r="O201" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P201" t="s">
         <v>30</v>
@@ -10728,7 +10842,7 @@
       </c>
       <c r="H202" t="s"/>
       <c r="I202" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J202" t="s"/>
       <c r="K202" t="n">
@@ -10744,7 +10858,7 @@
         <v>30</v>
       </c>
       <c r="O202" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P202" t="s">
         <v>30</v>
@@ -10772,7 +10886,7 @@
       </c>
       <c r="H203" t="s"/>
       <c r="I203" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J203" t="s"/>
       <c r="K203" t="n">
@@ -10788,7 +10902,7 @@
         <v>30</v>
       </c>
       <c r="O203" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="P203" t="s">
         <v>30</v>
@@ -10816,7 +10930,7 @@
       </c>
       <c r="H204" t="s"/>
       <c r="I204" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J204" t="s"/>
       <c r="K204" t="n">
@@ -10832,7 +10946,7 @@
         <v>30</v>
       </c>
       <c r="O204" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="P204" t="s">
         <v>30</v>
@@ -10860,7 +10974,7 @@
       </c>
       <c r="H205" t="s"/>
       <c r="I205" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J205" t="s"/>
       <c r="K205" t="n">
@@ -10876,7 +10990,7 @@
         <v>30</v>
       </c>
       <c r="O205" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P205" t="s">
         <v>30</v>
@@ -10904,7 +11018,7 @@
       </c>
       <c r="H206" t="s"/>
       <c r="I206" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J206" t="s"/>
       <c r="K206" t="n">
@@ -10920,7 +11034,7 @@
         <v>30</v>
       </c>
       <c r="O206" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P206" t="s">
         <v>30</v>
@@ -10948,7 +11062,7 @@
       </c>
       <c r="H207" t="s"/>
       <c r="I207" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J207" t="s"/>
       <c r="K207" t="n">
@@ -10964,7 +11078,7 @@
         <v>30</v>
       </c>
       <c r="O207" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P207" t="s">
         <v>30</v>
@@ -11008,7 +11122,7 @@
         <v>30</v>
       </c>
       <c r="O208" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="P208" t="s">
         <v>30</v>
@@ -11036,7 +11150,7 @@
       </c>
       <c r="H209" t="s"/>
       <c r="I209" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J209" t="s"/>
       <c r="K209" t="n">
@@ -11052,10 +11166,10 @@
         <v>30</v>
       </c>
       <c r="O209" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="P209" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -11080,7 +11194,7 @@
       </c>
       <c r="H210" t="s"/>
       <c r="I210" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J210" t="s"/>
       <c r="K210" t="n">
@@ -11096,7 +11210,7 @@
         <v>30</v>
       </c>
       <c r="O210" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="P210" t="s">
         <v>30</v>
@@ -11124,7 +11238,7 @@
       </c>
       <c r="H211" t="s"/>
       <c r="I211" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J211" t="s"/>
       <c r="K211" t="n">
@@ -11140,7 +11254,7 @@
         <v>30</v>
       </c>
       <c r="O211" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="P211" t="s">
         <v>30</v>
@@ -11168,7 +11282,7 @@
       </c>
       <c r="H212" t="s"/>
       <c r="I212" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J212" t="s"/>
       <c r="K212" t="n">
@@ -11184,7 +11298,7 @@
         <v>30</v>
       </c>
       <c r="O212" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="P212" t="s">
         <v>30</v>
@@ -11212,7 +11326,7 @@
       </c>
       <c r="H213" t="s"/>
       <c r="I213" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J213" t="s"/>
       <c r="K213" t="n">
@@ -11228,7 +11342,7 @@
         <v>30</v>
       </c>
       <c r="O213" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="P213" t="s">
         <v>30</v>
@@ -11256,7 +11370,7 @@
       </c>
       <c r="H214" t="s"/>
       <c r="I214" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J214" t="s"/>
       <c r="K214" t="n">
@@ -11272,7 +11386,7 @@
         <v>30</v>
       </c>
       <c r="O214" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="P214" t="s">
         <v>30</v>
@@ -11300,7 +11414,7 @@
       </c>
       <c r="H215" t="s"/>
       <c r="I215" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J215" t="s"/>
       <c r="K215" t="n">
@@ -11316,7 +11430,7 @@
         <v>30</v>
       </c>
       <c r="O215" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P215" t="s">
         <v>30</v>
@@ -11344,7 +11458,7 @@
       </c>
       <c r="H216" t="s"/>
       <c r="I216" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J216" t="s"/>
       <c r="K216" t="n">
@@ -11360,7 +11474,7 @@
         <v>30</v>
       </c>
       <c r="O216" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P216" t="s">
         <v>30</v>
@@ -11388,7 +11502,7 @@
       </c>
       <c r="H217" t="s"/>
       <c r="I217" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J217" t="s"/>
       <c r="K217" t="n">
@@ -11404,10 +11518,10 @@
         <v>30</v>
       </c>
       <c r="O217" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="P217" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -11432,7 +11546,7 @@
       </c>
       <c r="H218" t="s"/>
       <c r="I218" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J218" t="s"/>
       <c r="K218" t="n">
@@ -11448,10 +11562,10 @@
         <v>30</v>
       </c>
       <c r="O218" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="P218" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -11476,7 +11590,7 @@
       </c>
       <c r="H219" t="s"/>
       <c r="I219" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J219" t="s"/>
       <c r="K219" t="n">
@@ -11492,10 +11606,10 @@
         <v>30</v>
       </c>
       <c r="O219" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -11520,7 +11634,7 @@
       </c>
       <c r="H220" t="s"/>
       <c r="I220" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J220" t="s"/>
       <c r="K220" t="n">
@@ -11536,7 +11650,7 @@
         <v>30</v>
       </c>
       <c r="O220" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P220" t="s">
         <v>30</v>
@@ -11564,7 +11678,7 @@
       </c>
       <c r="H221" t="s"/>
       <c r="I221" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J221" t="s"/>
       <c r="K221" t="n">
@@ -11580,7 +11694,7 @@
         <v>30</v>
       </c>
       <c r="O221" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="P221" t="s">
         <v>30</v>
@@ -11608,7 +11722,7 @@
       </c>
       <c r="H222" t="s"/>
       <c r="I222" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J222" t="s"/>
       <c r="K222" t="n">
@@ -11624,7 +11738,7 @@
         <v>30</v>
       </c>
       <c r="O222" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="P222" t="s">
         <v>30</v>
@@ -11652,7 +11766,7 @@
       </c>
       <c r="H223" t="s"/>
       <c r="I223" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J223" t="s"/>
       <c r="K223" t="n">
@@ -11668,7 +11782,7 @@
         <v>30</v>
       </c>
       <c r="O223" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P223" t="s">
         <v>30</v>
@@ -11696,7 +11810,7 @@
       </c>
       <c r="H224" t="s"/>
       <c r="I224" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J224" t="s"/>
       <c r="K224" t="n">
@@ -11712,7 +11826,7 @@
         <v>30</v>
       </c>
       <c r="O224" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P224" t="s">
         <v>30</v>
@@ -11740,11 +11854,11 @@
       </c>
       <c r="H225" t="s"/>
       <c r="I225" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J225" t="s"/>
       <c r="K225" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L225" s="2" t="n">
         <v>1</v>
@@ -11756,10 +11870,10 @@
         <v>30</v>
       </c>
       <c r="O225" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="P225" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -11784,11 +11898,11 @@
       </c>
       <c r="H226" t="s"/>
       <c r="I226" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J226" t="s"/>
       <c r="K226" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L226" s="2" t="n">
         <v>1</v>
@@ -11800,10 +11914,10 @@
         <v>30</v>
       </c>
       <c r="O226" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="P226" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -11828,11 +11942,11 @@
       </c>
       <c r="H227" t="s"/>
       <c r="I227" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J227" t="s"/>
       <c r="K227" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L227" s="2" t="n">
         <v>1</v>
@@ -11844,10 +11958,10 @@
         <v>30</v>
       </c>
       <c r="O227" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="P227" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -11872,11 +11986,11 @@
       </c>
       <c r="H228" t="s"/>
       <c r="I228" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J228" t="s"/>
       <c r="K228" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L228" s="2" t="n">
         <v>1</v>
@@ -11888,7 +12002,7 @@
         <v>30</v>
       </c>
       <c r="O228" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P228" t="s">
         <v>34</v>
@@ -11916,11 +12030,11 @@
       </c>
       <c r="H229" t="s"/>
       <c r="I229" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J229" t="s"/>
       <c r="K229" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L229" s="2" t="n">
         <v>1</v>
@@ -11932,10 +12046,10 @@
         <v>30</v>
       </c>
       <c r="O229" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="P229" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -11960,11 +12074,11 @@
       </c>
       <c r="H230" t="s"/>
       <c r="I230" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J230" t="s"/>
       <c r="K230" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L230" s="2" t="n">
         <v>1</v>
@@ -11976,10 +12090,10 @@
         <v>30</v>
       </c>
       <c r="O230" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P230" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -12004,11 +12118,11 @@
       </c>
       <c r="H231" t="s"/>
       <c r="I231" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J231" t="s"/>
       <c r="K231" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L231" s="2" t="n">
         <v>1</v>
@@ -12020,10 +12134,10 @@
         <v>30</v>
       </c>
       <c r="O231" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P231" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -12048,11 +12162,11 @@
       </c>
       <c r="H232" t="s"/>
       <c r="I232" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="J232" t="s"/>
       <c r="K232" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L232" s="2" t="n">
         <v>1</v>
@@ -12064,10 +12178,10 @@
         <v>30</v>
       </c>
       <c r="O232" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="P232" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -12092,11 +12206,11 @@
       </c>
       <c r="H233" t="s"/>
       <c r="I233" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="J233" t="s"/>
       <c r="K233" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L233" s="2" t="n">
         <v>1</v>
@@ -12108,10 +12222,10 @@
         <v>30</v>
       </c>
       <c r="O233" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="P233" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -12136,11 +12250,11 @@
       </c>
       <c r="H234" t="s"/>
       <c r="I234" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="J234" t="s"/>
       <c r="K234" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L234" s="2" t="n">
         <v>1</v>
@@ -12152,10 +12266,10 @@
         <v>30</v>
       </c>
       <c r="O234" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="P234" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -12180,11 +12294,11 @@
       </c>
       <c r="H235" t="s"/>
       <c r="I235" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="J235" t="s"/>
       <c r="K235" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L235" s="2" t="n">
         <v>1</v>
@@ -12196,10 +12310,10 @@
         <v>30</v>
       </c>
       <c r="O235" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P235" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -12224,11 +12338,11 @@
       </c>
       <c r="H236" t="s"/>
       <c r="I236" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="J236" t="s"/>
       <c r="K236" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L236" s="2" t="n">
         <v>1</v>
@@ -12240,7 +12354,7 @@
         <v>30</v>
       </c>
       <c r="O236" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="P236" t="s">
         <v>34</v>
@@ -12268,11 +12382,11 @@
       </c>
       <c r="H237" t="s"/>
       <c r="I237" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="J237" t="s"/>
       <c r="K237" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L237" s="2" t="n">
         <v>1</v>
@@ -12284,7 +12398,7 @@
         <v>30</v>
       </c>
       <c r="O237" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P237" t="s">
         <v>34</v>
@@ -12312,11 +12426,11 @@
       </c>
       <c r="H238" t="s"/>
       <c r="I238" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="J238" t="s"/>
       <c r="K238" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L238" s="2" t="n">
         <v>1</v>
@@ -12328,7 +12442,7 @@
         <v>30</v>
       </c>
       <c r="O238" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P238" t="s">
         <v>34</v>
@@ -12356,11 +12470,11 @@
       </c>
       <c r="H239" t="s"/>
       <c r="I239" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="J239" t="s"/>
       <c r="K239" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L239" s="2" t="n">
         <v>1</v>
@@ -12372,10 +12486,10 @@
         <v>30</v>
       </c>
       <c r="O239" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P239" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -12400,11 +12514,11 @@
       </c>
       <c r="H240" t="s"/>
       <c r="I240" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="J240" t="s"/>
       <c r="K240" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L240" s="2" t="n">
         <v>1</v>
@@ -12416,10 +12530,10 @@
         <v>30</v>
       </c>
       <c r="O240" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P240" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -12444,11 +12558,11 @@
       </c>
       <c r="H241" t="s"/>
       <c r="I241" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="J241" t="s"/>
       <c r="K241" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L241" s="2" t="n">
         <v>1</v>
@@ -12463,7 +12577,7 @@
         <v>95</v>
       </c>
       <c r="P241" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -12488,11 +12602,11 @@
       </c>
       <c r="H242" t="s"/>
       <c r="I242" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="J242" t="s"/>
       <c r="K242" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L242" s="2" t="n">
         <v>1</v>
@@ -12504,10 +12618,10 @@
         <v>30</v>
       </c>
       <c r="O242" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P242" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -12532,11 +12646,11 @@
       </c>
       <c r="H243" t="s"/>
       <c r="I243" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="J243" t="s"/>
       <c r="K243" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L243" s="2" t="n">
         <v>1</v>
@@ -12548,7 +12662,7 @@
         <v>30</v>
       </c>
       <c r="O243" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="P243" t="s">
         <v>30</v>
@@ -12576,11 +12690,11 @@
       </c>
       <c r="H244" t="s"/>
       <c r="I244" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="J244" t="s"/>
       <c r="K244" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L244" s="2" t="n">
         <v>1</v>
@@ -12592,7 +12706,7 @@
         <v>30</v>
       </c>
       <c r="O244" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P244" t="s">
         <v>30</v>
@@ -12620,7 +12734,7 @@
       </c>
       <c r="H245" t="s"/>
       <c r="I245" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="J245" t="s"/>
       <c r="K245" t="n">
@@ -12636,10 +12750,10 @@
         <v>30</v>
       </c>
       <c r="O245" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P245" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -12664,7 +12778,7 @@
       </c>
       <c r="H246" t="s"/>
       <c r="I246" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="J246" t="s"/>
       <c r="K246" t="n">
@@ -12680,10 +12794,10 @@
         <v>30</v>
       </c>
       <c r="O246" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P246" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -12708,7 +12822,7 @@
       </c>
       <c r="H247" t="s"/>
       <c r="I247" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="J247" t="s"/>
       <c r="K247" t="n">
@@ -12724,10 +12838,10 @@
         <v>30</v>
       </c>
       <c r="O247" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P247" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -12752,7 +12866,7 @@
       </c>
       <c r="H248" t="s"/>
       <c r="I248" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="J248" t="s"/>
       <c r="K248" t="n">
@@ -12768,10 +12882,10 @@
         <v>30</v>
       </c>
       <c r="O248" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P248" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -12796,7 +12910,7 @@
       </c>
       <c r="H249" t="s"/>
       <c r="I249" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="J249" t="s"/>
       <c r="K249" t="n">
@@ -12812,10 +12926,10 @@
         <v>30</v>
       </c>
       <c r="O249" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="P249" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -12840,7 +12954,7 @@
       </c>
       <c r="H250" t="s"/>
       <c r="I250" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="J250" t="s"/>
       <c r="K250" t="n">
@@ -12856,10 +12970,10 @@
         <v>30</v>
       </c>
       <c r="O250" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="P250" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -12884,7 +12998,7 @@
       </c>
       <c r="H251" t="s"/>
       <c r="I251" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="J251" t="s"/>
       <c r="K251" t="n">
@@ -12900,10 +13014,10 @@
         <v>30</v>
       </c>
       <c r="O251" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="P251" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -12928,7 +13042,7 @@
       </c>
       <c r="H252" t="s"/>
       <c r="I252" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="J252" t="s"/>
       <c r="K252" t="n">
@@ -12944,10 +13058,10 @@
         <v>30</v>
       </c>
       <c r="O252" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="P252" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -12972,7 +13086,7 @@
       </c>
       <c r="H253" t="s"/>
       <c r="I253" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="J253" t="s"/>
       <c r="K253" t="n">
@@ -12988,10 +13102,10 @@
         <v>30</v>
       </c>
       <c r="O253" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="P253" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -13016,7 +13130,7 @@
       </c>
       <c r="H254" t="s"/>
       <c r="I254" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="J254" t="s"/>
       <c r="K254" t="n">
@@ -13032,10 +13146,10 @@
         <v>30</v>
       </c>
       <c r="O254" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="P254" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -13060,7 +13174,7 @@
       </c>
       <c r="H255" t="s"/>
       <c r="I255" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="J255" t="s"/>
       <c r="K255" t="n">
@@ -13076,10 +13190,10 @@
         <v>30</v>
       </c>
       <c r="O255" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P255" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -13104,7 +13218,7 @@
       </c>
       <c r="H256" t="s"/>
       <c r="I256" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="J256" t="s"/>
       <c r="K256" t="n">
@@ -13120,10 +13234,10 @@
         <v>30</v>
       </c>
       <c r="O256" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P256" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="257" spans="1:16">
@@ -13148,7 +13262,7 @@
       </c>
       <c r="H257" t="s"/>
       <c r="I257" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="J257" t="s"/>
       <c r="K257" t="n">
@@ -13164,10 +13278,10 @@
         <v>30</v>
       </c>
       <c r="O257" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P257" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="258" spans="1:16">
@@ -13192,7 +13306,7 @@
       </c>
       <c r="H258" t="s"/>
       <c r="I258" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="J258" t="s"/>
       <c r="K258" t="n">
@@ -13208,10 +13322,10 @@
         <v>30</v>
       </c>
       <c r="O258" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P258" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="259" spans="1:16">
@@ -13236,7 +13350,7 @@
       </c>
       <c r="H259" t="s"/>
       <c r="I259" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="J259" t="s"/>
       <c r="K259" t="n">
@@ -13252,10 +13366,10 @@
         <v>30</v>
       </c>
       <c r="O259" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P259" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="260" spans="1:16">
@@ -13280,7 +13394,7 @@
       </c>
       <c r="H260" t="s"/>
       <c r="I260" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="J260" t="s"/>
       <c r="K260" t="n">
@@ -13296,10 +13410,10 @@
         <v>30</v>
       </c>
       <c r="O260" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P260" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="261" spans="1:16">
@@ -13324,7 +13438,7 @@
       </c>
       <c r="H261" t="s"/>
       <c r="I261" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="J261" t="s"/>
       <c r="K261" t="n">
@@ -13340,10 +13454,10 @@
         <v>30</v>
       </c>
       <c r="O261" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P261" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="262" spans="1:16">
@@ -13368,7 +13482,7 @@
       </c>
       <c r="H262" t="s"/>
       <c r="I262" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="J262" t="s"/>
       <c r="K262" t="n">
@@ -13384,10 +13498,10 @@
         <v>30</v>
       </c>
       <c r="O262" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P262" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="263" spans="1:16">
@@ -13412,7 +13526,7 @@
       </c>
       <c r="H263" t="s"/>
       <c r="I263" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="J263" t="s"/>
       <c r="K263" t="n">
@@ -13428,10 +13542,10 @@
         <v>30</v>
       </c>
       <c r="O263" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="P263" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="264" spans="1:16">
@@ -13456,7 +13570,7 @@
       </c>
       <c r="H264" t="s"/>
       <c r="I264" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="J264" t="s"/>
       <c r="K264" t="n">
@@ -13472,7 +13586,7 @@
         <v>30</v>
       </c>
       <c r="O264" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="P264" t="s">
         <v>30</v>
@@ -13500,7 +13614,7 @@
       </c>
       <c r="H265" t="s"/>
       <c r="I265" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="J265" t="s"/>
       <c r="K265" t="n">
@@ -13516,7 +13630,7 @@
         <v>30</v>
       </c>
       <c r="O265" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P265" t="s">
         <v>30</v>
@@ -13544,7 +13658,7 @@
       </c>
       <c r="H266" t="s"/>
       <c r="I266" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="J266" t="s"/>
       <c r="K266" t="n">
@@ -13560,7 +13674,7 @@
         <v>30</v>
       </c>
       <c r="O266" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P266" t="s">
         <v>30</v>
@@ -13588,7 +13702,7 @@
       </c>
       <c r="H267" t="s"/>
       <c r="I267" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="J267" t="s"/>
       <c r="K267" t="n">
@@ -13604,7 +13718,7 @@
         <v>30</v>
       </c>
       <c r="O267" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="P267" t="s">
         <v>30</v>
@@ -13632,7 +13746,7 @@
       </c>
       <c r="H268" t="s"/>
       <c r="I268" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="J268" t="s"/>
       <c r="K268" t="n">
@@ -13648,7 +13762,7 @@
         <v>30</v>
       </c>
       <c r="O268" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="P268" t="s">
         <v>30</v>
@@ -13676,7 +13790,7 @@
       </c>
       <c r="H269" t="s"/>
       <c r="I269" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="J269" t="s"/>
       <c r="K269" t="n">
@@ -13692,7 +13806,7 @@
         <v>30</v>
       </c>
       <c r="O269" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P269" t="s">
         <v>30</v>
@@ -13720,7 +13834,7 @@
       </c>
       <c r="H270" t="s"/>
       <c r="I270" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="J270" t="s"/>
       <c r="K270" t="n">
@@ -13736,7 +13850,7 @@
         <v>30</v>
       </c>
       <c r="O270" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P270" t="s">
         <v>30</v>
@@ -13764,7 +13878,7 @@
       </c>
       <c r="H271" t="s"/>
       <c r="I271" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="J271" t="s"/>
       <c r="K271" t="n">
@@ -13780,7 +13894,7 @@
         <v>30</v>
       </c>
       <c r="O271" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P271" t="s">
         <v>30</v>
@@ -13808,7 +13922,7 @@
       </c>
       <c r="H272" t="s"/>
       <c r="I272" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="J272" t="s"/>
       <c r="K272" t="n">
@@ -13824,7 +13938,7 @@
         <v>30</v>
       </c>
       <c r="O272" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P272" t="s">
         <v>30</v>
@@ -13852,7 +13966,7 @@
       </c>
       <c r="H273" t="s"/>
       <c r="I273" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="J273" t="s"/>
       <c r="K273" t="n">
@@ -13868,7 +13982,7 @@
         <v>30</v>
       </c>
       <c r="O273" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="P273" t="s">
         <v>30</v>
@@ -13896,7 +14010,7 @@
       </c>
       <c r="H274" t="s"/>
       <c r="I274" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="J274" t="s"/>
       <c r="K274" t="n">
@@ -13912,7 +14026,7 @@
         <v>30</v>
       </c>
       <c r="O274" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P274" t="s">
         <v>30</v>
@@ -13940,7 +14054,7 @@
       </c>
       <c r="H275" t="s"/>
       <c r="I275" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="J275" t="s"/>
       <c r="K275" t="n">
@@ -13956,7 +14070,7 @@
         <v>30</v>
       </c>
       <c r="O275" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="P275" t="s">
         <v>30</v>
@@ -13984,7 +14098,7 @@
       </c>
       <c r="H276" t="s"/>
       <c r="I276" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="J276" t="s"/>
       <c r="K276" t="n">
@@ -14000,7 +14114,7 @@
         <v>30</v>
       </c>
       <c r="O276" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="P276" t="s">
         <v>30</v>
@@ -14028,7 +14142,7 @@
       </c>
       <c r="H277" t="s"/>
       <c r="I277" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="J277" t="s"/>
       <c r="K277" t="n">
@@ -14044,7 +14158,7 @@
         <v>30</v>
       </c>
       <c r="O277" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P277" t="s">
         <v>30</v>
@@ -14072,7 +14186,7 @@
       </c>
       <c r="H278" t="s"/>
       <c r="I278" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="J278" t="s"/>
       <c r="K278" t="n">
@@ -14088,7 +14202,7 @@
         <v>30</v>
       </c>
       <c r="O278" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="P278" t="s">
         <v>30</v>
@@ -14116,7 +14230,7 @@
       </c>
       <c r="H279" t="s"/>
       <c r="I279" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="J279" t="s"/>
       <c r="K279" t="n">
@@ -14132,7 +14246,7 @@
         <v>30</v>
       </c>
       <c r="O279" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P279" t="s">
         <v>30</v>
@@ -14160,7 +14274,7 @@
       </c>
       <c r="H280" t="s"/>
       <c r="I280" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="J280" t="s"/>
       <c r="K280" t="n">
@@ -14176,7 +14290,7 @@
         <v>30</v>
       </c>
       <c r="O280" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P280" t="s">
         <v>30</v>
@@ -14204,7 +14318,7 @@
       </c>
       <c r="H281" t="s"/>
       <c r="I281" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="J281" t="s"/>
       <c r="K281" t="n">
@@ -14220,7 +14334,7 @@
         <v>30</v>
       </c>
       <c r="O281" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="P281" t="s">
         <v>30</v>
@@ -14248,7 +14362,7 @@
       </c>
       <c r="H282" t="s"/>
       <c r="I282" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="J282" t="s"/>
       <c r="K282" t="n">
@@ -14264,7 +14378,7 @@
         <v>30</v>
       </c>
       <c r="O282" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P282" t="s">
         <v>30</v>
@@ -14292,7 +14406,7 @@
       </c>
       <c r="H283" t="s"/>
       <c r="I283" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="J283" t="s"/>
       <c r="K283" t="n">
@@ -14308,7 +14422,7 @@
         <v>30</v>
       </c>
       <c r="O283" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="P283" t="s">
         <v>30</v>
@@ -14336,7 +14450,7 @@
       </c>
       <c r="H284" t="s"/>
       <c r="I284" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="J284" t="s"/>
       <c r="K284" t="n">
@@ -14352,7 +14466,7 @@
         <v>30</v>
       </c>
       <c r="O284" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P284" t="s">
         <v>30</v>
@@ -14380,7 +14494,7 @@
       </c>
       <c r="H285" t="s"/>
       <c r="I285" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="J285" t="s"/>
       <c r="K285" t="n">
@@ -14396,7 +14510,7 @@
         <v>30</v>
       </c>
       <c r="O285" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P285" t="s">
         <v>30</v>
@@ -14424,7 +14538,7 @@
       </c>
       <c r="H286" t="s"/>
       <c r="I286" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="J286" t="s"/>
       <c r="K286" t="n">
@@ -14440,7 +14554,7 @@
         <v>30</v>
       </c>
       <c r="O286" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P286" t="s">
         <v>30</v>
@@ -14468,7 +14582,7 @@
       </c>
       <c r="H287" t="s"/>
       <c r="I287" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="J287" t="s"/>
       <c r="K287" t="n">
@@ -14484,7 +14598,7 @@
         <v>30</v>
       </c>
       <c r="O287" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P287" t="s">
         <v>30</v>
@@ -14512,7 +14626,7 @@
       </c>
       <c r="H288" t="s"/>
       <c r="I288" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="J288" t="s"/>
       <c r="K288" t="n">
@@ -14528,7 +14642,7 @@
         <v>30</v>
       </c>
       <c r="O288" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P288" t="s">
         <v>30</v>
@@ -14556,7 +14670,7 @@
       </c>
       <c r="H289" t="s"/>
       <c r="I289" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="J289" t="s"/>
       <c r="K289" t="n">
@@ -14572,7 +14686,7 @@
         <v>30</v>
       </c>
       <c r="O289" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="P289" t="s">
         <v>30</v>
@@ -14600,7 +14714,7 @@
       </c>
       <c r="H290" t="s"/>
       <c r="I290" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="J290" t="s"/>
       <c r="K290" t="n">
@@ -14616,7 +14730,7 @@
         <v>30</v>
       </c>
       <c r="O290" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="P290" t="s">
         <v>30</v>
@@ -14644,7 +14758,7 @@
       </c>
       <c r="H291" t="s"/>
       <c r="I291" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="J291" t="s"/>
       <c r="K291" t="n">
@@ -14660,7 +14774,7 @@
         <v>30</v>
       </c>
       <c r="O291" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="P291" t="s">
         <v>30</v>
@@ -14688,7 +14802,7 @@
       </c>
       <c r="H292" t="s"/>
       <c r="I292" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="J292" t="s"/>
       <c r="K292" t="n">
@@ -14704,7 +14818,7 @@
         <v>30</v>
       </c>
       <c r="O292" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P292" t="s">
         <v>30</v>
@@ -14732,7 +14846,7 @@
       </c>
       <c r="H293" t="s"/>
       <c r="I293" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="J293" t="s"/>
       <c r="K293" t="n">
@@ -14748,7 +14862,7 @@
         <v>30</v>
       </c>
       <c r="O293" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="P293" t="s">
         <v>30</v>
@@ -14776,7 +14890,7 @@
       </c>
       <c r="H294" t="s"/>
       <c r="I294" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="J294" t="s"/>
       <c r="K294" t="n">
@@ -14792,7 +14906,7 @@
         <v>30</v>
       </c>
       <c r="O294" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P294" t="s">
         <v>30</v>
@@ -14820,7 +14934,7 @@
       </c>
       <c r="H295" t="s"/>
       <c r="I295" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="J295" t="s"/>
       <c r="K295" t="n">
@@ -14836,7 +14950,7 @@
         <v>30</v>
       </c>
       <c r="O295" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="P295" t="s">
         <v>30</v>
@@ -14864,7 +14978,7 @@
       </c>
       <c r="H296" t="s"/>
       <c r="I296" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="J296" t="s"/>
       <c r="K296" t="n">
@@ -14908,7 +15022,7 @@
       </c>
       <c r="H297" t="s"/>
       <c r="I297" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="J297" t="s"/>
       <c r="K297" t="n">
@@ -14924,7 +15038,7 @@
         <v>30</v>
       </c>
       <c r="O297" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="P297" t="s">
         <v>30</v>
@@ -14952,7 +15066,7 @@
       </c>
       <c r="H298" t="s"/>
       <c r="I298" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="J298" t="s"/>
       <c r="K298" t="n">
@@ -14968,7 +15082,7 @@
         <v>30</v>
       </c>
       <c r="O298" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="P298" t="s">
         <v>30</v>
@@ -14996,7 +15110,7 @@
       </c>
       <c r="H299" t="s"/>
       <c r="I299" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="J299" t="s"/>
       <c r="K299" t="n">
@@ -15012,7 +15126,7 @@
         <v>30</v>
       </c>
       <c r="O299" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P299" t="s">
         <v>30</v>
@@ -15040,7 +15154,7 @@
       </c>
       <c r="H300" t="s"/>
       <c r="I300" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="J300" t="s"/>
       <c r="K300" t="n">
@@ -15056,7 +15170,7 @@
         <v>30</v>
       </c>
       <c r="O300" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="P300" t="s">
         <v>30</v>
@@ -15084,7 +15198,7 @@
       </c>
       <c r="H301" t="s"/>
       <c r="I301" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="J301" t="s"/>
       <c r="K301" t="n">
@@ -15100,7 +15214,7 @@
         <v>30</v>
       </c>
       <c r="O301" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P301" t="s">
         <v>30</v>
@@ -15128,7 +15242,7 @@
       </c>
       <c r="H302" t="s"/>
       <c r="I302" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="J302" t="s"/>
       <c r="K302" t="n">
@@ -15144,7 +15258,7 @@
         <v>30</v>
       </c>
       <c r="O302" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="P302" t="s">
         <v>30</v>
@@ -15172,7 +15286,7 @@
       </c>
       <c r="H303" t="s"/>
       <c r="I303" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="J303" t="s"/>
       <c r="K303" t="n">
@@ -15216,7 +15330,7 @@
       </c>
       <c r="H304" t="s"/>
       <c r="I304" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="J304" t="s"/>
       <c r="K304" t="n">
@@ -15232,7 +15346,7 @@
         <v>30</v>
       </c>
       <c r="O304" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P304" t="s">
         <v>30</v>
@@ -15260,7 +15374,7 @@
       </c>
       <c r="H305" t="s"/>
       <c r="I305" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="J305" t="s"/>
       <c r="K305" t="n">
@@ -15276,7 +15390,7 @@
         <v>30</v>
       </c>
       <c r="O305" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="P305" t="s">
         <v>30</v>
@@ -15304,7 +15418,7 @@
       </c>
       <c r="H306" t="s"/>
       <c r="I306" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="J306" t="s"/>
       <c r="K306" t="n">
@@ -15320,10 +15434,10 @@
         <v>30</v>
       </c>
       <c r="O306" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P306" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="307" spans="1:16">
@@ -15348,7 +15462,7 @@
       </c>
       <c r="H307" t="s"/>
       <c r="I307" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="J307" t="s"/>
       <c r="K307" t="n">
@@ -15364,10 +15478,10 @@
         <v>30</v>
       </c>
       <c r="O307" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P307" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="308" spans="1:16">
@@ -15392,7 +15506,7 @@
       </c>
       <c r="H308" t="s"/>
       <c r="I308" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="J308" t="s"/>
       <c r="K308" t="n">
@@ -15408,10 +15522,10 @@
         <v>30</v>
       </c>
       <c r="O308" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="P308" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="309" spans="1:16">
@@ -15436,7 +15550,7 @@
       </c>
       <c r="H309" t="s"/>
       <c r="I309" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="J309" t="s"/>
       <c r="K309" t="n">
@@ -15452,10 +15566,10 @@
         <v>30</v>
       </c>
       <c r="O309" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P309" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="310" spans="1:16">
@@ -15480,7 +15594,7 @@
       </c>
       <c r="H310" t="s"/>
       <c r="I310" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="J310" t="s"/>
       <c r="K310" t="n">
@@ -15496,10 +15610,10 @@
         <v>30</v>
       </c>
       <c r="O310" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="P310" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="311" spans="1:16">
@@ -15524,7 +15638,7 @@
       </c>
       <c r="H311" t="s"/>
       <c r="I311" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="J311" t="s"/>
       <c r="K311" t="n">
@@ -15540,10 +15654,10 @@
         <v>30</v>
       </c>
       <c r="O311" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="P311" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="312" spans="1:16">
@@ -15568,7 +15682,7 @@
       </c>
       <c r="H312" t="s"/>
       <c r="I312" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="J312" t="s"/>
       <c r="K312" t="n">
@@ -15584,10 +15698,10 @@
         <v>30</v>
       </c>
       <c r="O312" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P312" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="313" spans="1:16">
@@ -15612,7 +15726,7 @@
       </c>
       <c r="H313" t="s"/>
       <c r="I313" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="J313" t="s"/>
       <c r="K313" t="n">
@@ -15628,10 +15742,10 @@
         <v>30</v>
       </c>
       <c r="O313" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P313" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="314" spans="1:16">
@@ -15656,7 +15770,7 @@
       </c>
       <c r="H314" t="s"/>
       <c r="I314" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="J314" t="s"/>
       <c r="K314" t="n">
@@ -15672,10 +15786,10 @@
         <v>30</v>
       </c>
       <c r="O314" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P314" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="315" spans="1:16">
@@ -15700,7 +15814,7 @@
       </c>
       <c r="H315" t="s"/>
       <c r="I315" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="J315" t="s"/>
       <c r="K315" t="n">
@@ -15716,10 +15830,10 @@
         <v>30</v>
       </c>
       <c r="O315" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P315" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="316" spans="1:16">
@@ -15744,7 +15858,7 @@
       </c>
       <c r="H316" t="s"/>
       <c r="I316" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="J316" t="s"/>
       <c r="K316" t="n">
@@ -15760,7 +15874,7 @@
         <v>30</v>
       </c>
       <c r="O316" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="P316" t="s">
         <v>30</v>
@@ -15788,7 +15902,7 @@
       </c>
       <c r="H317" t="s"/>
       <c r="I317" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="J317" t="s"/>
       <c r="K317" t="n">
@@ -15804,7 +15918,7 @@
         <v>30</v>
       </c>
       <c r="O317" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P317" t="s">
         <v>30</v>
@@ -15832,7 +15946,7 @@
       </c>
       <c r="H318" t="s"/>
       <c r="I318" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="J318" t="s"/>
       <c r="K318" t="n">
@@ -15848,7 +15962,7 @@
         <v>30</v>
       </c>
       <c r="O318" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P318" t="s">
         <v>30</v>
@@ -15876,7 +15990,7 @@
       </c>
       <c r="H319" t="s"/>
       <c r="I319" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="J319" t="s"/>
       <c r="K319" t="n">
@@ -15892,7 +16006,7 @@
         <v>30</v>
       </c>
       <c r="O319" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P319" t="s">
         <v>30</v>
@@ -15920,7 +16034,7 @@
       </c>
       <c r="H320" t="s"/>
       <c r="I320" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="J320" t="s"/>
       <c r="K320" t="n">
@@ -15936,7 +16050,7 @@
         <v>30</v>
       </c>
       <c r="O320" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="P320" t="s">
         <v>30</v>
@@ -15964,7 +16078,7 @@
       </c>
       <c r="H321" t="s"/>
       <c r="I321" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="J321" t="s"/>
       <c r="K321" t="n">
@@ -15980,7 +16094,7 @@
         <v>30</v>
       </c>
       <c r="O321" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="P321" t="s">
         <v>30</v>
@@ -16008,7 +16122,7 @@
       </c>
       <c r="H322" t="s"/>
       <c r="I322" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="J322" t="s"/>
       <c r="K322" t="n">
@@ -16024,7 +16138,7 @@
         <v>30</v>
       </c>
       <c r="O322" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="P322" t="s">
         <v>30</v>
@@ -16052,7 +16166,7 @@
       </c>
       <c r="H323" t="s"/>
       <c r="I323" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="J323" t="s"/>
       <c r="K323" t="n">
@@ -16068,7 +16182,7 @@
         <v>30</v>
       </c>
       <c r="O323" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P323" t="s">
         <v>30</v>
@@ -16096,7 +16210,7 @@
       </c>
       <c r="H324" t="s"/>
       <c r="I324" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="J324" t="s"/>
       <c r="K324" t="n">
@@ -16112,7 +16226,7 @@
         <v>30</v>
       </c>
       <c r="O324" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="P324" t="s">
         <v>30</v>
@@ -16140,7 +16254,7 @@
       </c>
       <c r="H325" t="s"/>
       <c r="I325" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="J325" t="s"/>
       <c r="K325" t="n">
@@ -16156,7 +16270,7 @@
         <v>30</v>
       </c>
       <c r="O325" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="P325" t="s">
         <v>30</v>
@@ -16184,7 +16298,7 @@
       </c>
       <c r="H326" t="s"/>
       <c r="I326" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="J326" t="s"/>
       <c r="K326" t="n">
@@ -16200,7 +16314,7 @@
         <v>30</v>
       </c>
       <c r="O326" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="P326" t="s">
         <v>30</v>
@@ -16228,7 +16342,7 @@
       </c>
       <c r="H327" t="s"/>
       <c r="I327" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="J327" t="s"/>
       <c r="K327" t="n">
@@ -16244,7 +16358,7 @@
         <v>30</v>
       </c>
       <c r="O327" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="P327" t="s">
         <v>30</v>
@@ -16272,7 +16386,7 @@
       </c>
       <c r="H328" t="s"/>
       <c r="I328" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="J328" t="s"/>
       <c r="K328" t="n">
@@ -16288,7 +16402,7 @@
         <v>30</v>
       </c>
       <c r="O328" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P328" t="s">
         <v>30</v>
@@ -16316,7 +16430,7 @@
       </c>
       <c r="H329" t="s"/>
       <c r="I329" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="J329" t="s"/>
       <c r="K329" t="n">
@@ -16332,7 +16446,7 @@
         <v>30</v>
       </c>
       <c r="O329" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P329" t="s">
         <v>30</v>
@@ -16360,7 +16474,7 @@
       </c>
       <c r="H330" t="s"/>
       <c r="I330" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="J330" t="s"/>
       <c r="K330" t="n">
@@ -16376,7 +16490,7 @@
         <v>30</v>
       </c>
       <c r="O330" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="P330" t="s">
         <v>30</v>
@@ -16404,7 +16518,7 @@
       </c>
       <c r="H331" t="s"/>
       <c r="I331" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="J331" t="s"/>
       <c r="K331" t="n">
@@ -16420,7 +16534,7 @@
         <v>30</v>
       </c>
       <c r="O331" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="P331" t="s">
         <v>30</v>
@@ -16448,7 +16562,7 @@
       </c>
       <c r="H332" t="s"/>
       <c r="I332" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="J332" t="s"/>
       <c r="K332" t="n">
@@ -16464,7 +16578,7 @@
         <v>30</v>
       </c>
       <c r="O332" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P332" t="s">
         <v>30</v>
@@ -16492,7 +16606,7 @@
       </c>
       <c r="H333" t="s"/>
       <c r="I333" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="J333" t="s"/>
       <c r="K333" t="n">
@@ -16508,7 +16622,7 @@
         <v>30</v>
       </c>
       <c r="O333" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="P333" t="s">
         <v>30</v>
@@ -16536,7 +16650,7 @@
       </c>
       <c r="H334" t="s"/>
       <c r="I334" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J334" t="s"/>
       <c r="K334" t="n">
@@ -16552,7 +16666,7 @@
         <v>30</v>
       </c>
       <c r="O334" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="P334" t="s">
         <v>30</v>
@@ -16580,7 +16694,7 @@
       </c>
       <c r="H335" t="s"/>
       <c r="I335" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="J335" t="s"/>
       <c r="K335" t="n">
@@ -16596,7 +16710,7 @@
         <v>30</v>
       </c>
       <c r="O335" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="P335" t="s">
         <v>30</v>
@@ -16624,7 +16738,7 @@
       </c>
       <c r="H336" t="s"/>
       <c r="I336" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="J336" t="s"/>
       <c r="K336" t="n">
@@ -16640,7 +16754,7 @@
         <v>30</v>
       </c>
       <c r="O336" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P336" t="s">
         <v>30</v>
@@ -16668,7 +16782,7 @@
       </c>
       <c r="H337" t="s"/>
       <c r="I337" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="J337" t="s"/>
       <c r="K337" t="n">
@@ -16684,10 +16798,10 @@
         <v>30</v>
       </c>
       <c r="O337" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P337" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="338" spans="1:16">
@@ -16712,7 +16826,7 @@
       </c>
       <c r="H338" t="s"/>
       <c r="I338" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="J338" t="s"/>
       <c r="K338" t="n">
@@ -16728,10 +16842,10 @@
         <v>30</v>
       </c>
       <c r="O338" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P338" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="339" spans="1:16">
@@ -16756,7 +16870,7 @@
       </c>
       <c r="H339" t="s"/>
       <c r="I339" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="J339" t="s"/>
       <c r="K339" t="n">
@@ -16772,10 +16886,10 @@
         <v>30</v>
       </c>
       <c r="O339" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="P339" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="340" spans="1:16">
@@ -16800,7 +16914,7 @@
       </c>
       <c r="H340" t="s"/>
       <c r="I340" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="J340" t="s"/>
       <c r="K340" t="n">
@@ -16816,10 +16930,10 @@
         <v>30</v>
       </c>
       <c r="O340" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P340" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="341" spans="1:16">
@@ -16844,7 +16958,7 @@
       </c>
       <c r="H341" t="s"/>
       <c r="I341" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="J341" t="s"/>
       <c r="K341" t="n">
@@ -16860,10 +16974,10 @@
         <v>30</v>
       </c>
       <c r="O341" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="P341" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="342" spans="1:16">
@@ -16888,7 +17002,7 @@
       </c>
       <c r="H342" t="s"/>
       <c r="I342" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="J342" t="s"/>
       <c r="K342" t="n">
@@ -16904,10 +17018,10 @@
         <v>30</v>
       </c>
       <c r="O342" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P342" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="343" spans="1:16">
@@ -16932,7 +17046,7 @@
       </c>
       <c r="H343" t="s"/>
       <c r="I343" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="J343" t="s"/>
       <c r="K343" t="n">
@@ -16948,10 +17062,10 @@
         <v>30</v>
       </c>
       <c r="O343" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="P343" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="344" spans="1:16">
@@ -16976,7 +17090,7 @@
       </c>
       <c r="H344" t="s"/>
       <c r="I344" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="J344" t="s"/>
       <c r="K344" t="n">
@@ -16992,10 +17106,10 @@
         <v>30</v>
       </c>
       <c r="O344" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P344" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="345" spans="1:16">
@@ -17020,7 +17134,7 @@
       </c>
       <c r="H345" t="s"/>
       <c r="I345" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="J345" t="s"/>
       <c r="K345" t="n">
@@ -17036,10 +17150,10 @@
         <v>30</v>
       </c>
       <c r="O345" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="P345" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="346" spans="1:16">
@@ -17064,7 +17178,7 @@
       </c>
       <c r="H346" t="s"/>
       <c r="I346" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="J346" t="s"/>
       <c r="K346" t="n">
@@ -17080,10 +17194,10 @@
         <v>30</v>
       </c>
       <c r="O346" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="P346" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="347" spans="1:16">
@@ -17108,7 +17222,7 @@
       </c>
       <c r="H347" t="s"/>
       <c r="I347" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="J347" t="s"/>
       <c r="K347" t="n">
@@ -17124,7 +17238,7 @@
         <v>30</v>
       </c>
       <c r="O347" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P347" t="s">
         <v>30</v>
@@ -17152,7 +17266,7 @@
       </c>
       <c r="H348" t="s"/>
       <c r="I348" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="J348" t="s"/>
       <c r="K348" t="n">
@@ -17168,7 +17282,7 @@
         <v>30</v>
       </c>
       <c r="O348" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="P348" t="s">
         <v>30</v>
@@ -17196,7 +17310,7 @@
       </c>
       <c r="H349" t="s"/>
       <c r="I349" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="J349" t="s"/>
       <c r="K349" t="n">
@@ -17212,7 +17326,7 @@
         <v>30</v>
       </c>
       <c r="O349" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P349" t="s">
         <v>30</v>
@@ -17240,7 +17354,7 @@
       </c>
       <c r="H350" t="s"/>
       <c r="I350" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="J350" t="s"/>
       <c r="K350" t="n">
@@ -17256,7 +17370,7 @@
         <v>30</v>
       </c>
       <c r="O350" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P350" t="s">
         <v>30</v>
@@ -17284,7 +17398,7 @@
       </c>
       <c r="H351" t="s"/>
       <c r="I351" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="J351" t="s"/>
       <c r="K351" t="n">
@@ -17300,7 +17414,7 @@
         <v>30</v>
       </c>
       <c r="O351" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P351" t="s">
         <v>30</v>
@@ -17328,7 +17442,7 @@
       </c>
       <c r="H352" t="s"/>
       <c r="I352" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="J352" t="s"/>
       <c r="K352" t="n">
@@ -17344,7 +17458,7 @@
         <v>30</v>
       </c>
       <c r="O352" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="P352" t="s">
         <v>30</v>
@@ -17372,7 +17486,7 @@
       </c>
       <c r="H353" t="s"/>
       <c r="I353" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="J353" t="s"/>
       <c r="K353" t="n">
@@ -17388,7 +17502,7 @@
         <v>30</v>
       </c>
       <c r="O353" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P353" t="s">
         <v>30</v>
@@ -17416,7 +17530,7 @@
       </c>
       <c r="H354" t="s"/>
       <c r="I354" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="J354" t="s"/>
       <c r="K354" t="n">
@@ -17432,7 +17546,7 @@
         <v>30</v>
       </c>
       <c r="O354" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="P354" t="s">
         <v>30</v>
@@ -17460,7 +17574,7 @@
       </c>
       <c r="H355" t="s"/>
       <c r="I355" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="J355" t="s"/>
       <c r="K355" t="n">
@@ -17476,7 +17590,7 @@
         <v>30</v>
       </c>
       <c r="O355" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="P355" t="s">
         <v>30</v>
@@ -17504,7 +17618,7 @@
       </c>
       <c r="H356" t="s"/>
       <c r="I356" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J356" t="s"/>
       <c r="K356" t="n">
@@ -17520,7 +17634,7 @@
         <v>30</v>
       </c>
       <c r="O356" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="P356" t="s">
         <v>30</v>
@@ -17548,7 +17662,7 @@
       </c>
       <c r="H357" t="s"/>
       <c r="I357" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="J357" t="s"/>
       <c r="K357" t="n">
@@ -17564,7 +17678,7 @@
         <v>30</v>
       </c>
       <c r="O357" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="P357" t="s">
         <v>30</v>
@@ -17592,7 +17706,7 @@
       </c>
       <c r="H358" t="s"/>
       <c r="I358" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J358" t="s"/>
       <c r="K358" t="n">
@@ -17608,7 +17722,7 @@
         <v>30</v>
       </c>
       <c r="O358" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="P358" t="s">
         <v>30</v>
@@ -17636,7 +17750,7 @@
       </c>
       <c r="H359" t="s"/>
       <c r="I359" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="J359" t="s"/>
       <c r="K359" t="n">
@@ -17652,7 +17766,7 @@
         <v>30</v>
       </c>
       <c r="O359" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="P359" t="s">
         <v>30</v>
@@ -17680,7 +17794,7 @@
       </c>
       <c r="H360" t="s"/>
       <c r="I360" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="J360" t="s"/>
       <c r="K360" t="n">
@@ -17696,7 +17810,7 @@
         <v>30</v>
       </c>
       <c r="O360" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P360" t="s">
         <v>30</v>
@@ -17724,7 +17838,7 @@
       </c>
       <c r="H361" t="s"/>
       <c r="I361" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="J361" t="s"/>
       <c r="K361" t="n">
@@ -17740,7 +17854,7 @@
         <v>30</v>
       </c>
       <c r="O361" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="P361" t="s">
         <v>30</v>
@@ -17768,7 +17882,7 @@
       </c>
       <c r="H362" t="s"/>
       <c r="I362" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="J362" t="s"/>
       <c r="K362" t="n">
@@ -17784,7 +17898,7 @@
         <v>30</v>
       </c>
       <c r="O362" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="P362" t="s">
         <v>30</v>
@@ -17812,7 +17926,7 @@
       </c>
       <c r="H363" t="s"/>
       <c r="I363" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="J363" t="s"/>
       <c r="K363" t="n">
@@ -17828,7 +17942,7 @@
         <v>30</v>
       </c>
       <c r="O363" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="P363" t="s">
         <v>30</v>
@@ -17856,7 +17970,7 @@
       </c>
       <c r="H364" t="s"/>
       <c r="I364" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="J364" t="s"/>
       <c r="K364" t="n">
@@ -17872,7 +17986,7 @@
         <v>30</v>
       </c>
       <c r="O364" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="P364" t="s">
         <v>30</v>
@@ -17900,7 +18014,7 @@
       </c>
       <c r="H365" t="s"/>
       <c r="I365" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="J365" t="s"/>
       <c r="K365" t="n">
@@ -17916,7 +18030,7 @@
         <v>30</v>
       </c>
       <c r="O365" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="P365" t="s">
         <v>30</v>
@@ -17944,7 +18058,7 @@
       </c>
       <c r="H366" t="s"/>
       <c r="I366" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="J366" t="s"/>
       <c r="K366" t="n">
@@ -17960,7 +18074,7 @@
         <v>30</v>
       </c>
       <c r="O366" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="P366" t="s">
         <v>30</v>
@@ -17988,7 +18102,7 @@
       </c>
       <c r="H367" t="s"/>
       <c r="I367" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="J367" t="s"/>
       <c r="K367" t="n">
@@ -18004,7 +18118,7 @@
         <v>30</v>
       </c>
       <c r="O367" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="P367" t="s">
         <v>30</v>
@@ -18032,7 +18146,7 @@
       </c>
       <c r="H368" t="s"/>
       <c r="I368" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="J368" t="s"/>
       <c r="K368" t="n">
@@ -18048,7 +18162,7 @@
         <v>30</v>
       </c>
       <c r="O368" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="P368" t="s">
         <v>30</v>
@@ -18076,7 +18190,7 @@
       </c>
       <c r="H369" t="s"/>
       <c r="I369" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="J369" t="s"/>
       <c r="K369" t="n">
@@ -18092,7 +18206,7 @@
         <v>30</v>
       </c>
       <c r="O369" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="P369" t="s">
         <v>30</v>
@@ -18120,7 +18234,7 @@
       </c>
       <c r="H370" t="s"/>
       <c r="I370" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="J370" t="s"/>
       <c r="K370" t="n">
@@ -18136,7 +18250,7 @@
         <v>30</v>
       </c>
       <c r="O370" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P370" t="s">
         <v>30</v>
@@ -18164,7 +18278,7 @@
       </c>
       <c r="H371" t="s"/>
       <c r="I371" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="J371" t="s"/>
       <c r="K371" t="n">
@@ -18180,7 +18294,7 @@
         <v>30</v>
       </c>
       <c r="O371" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="P371" t="s">
         <v>30</v>
@@ -18208,7 +18322,7 @@
       </c>
       <c r="H372" t="s"/>
       <c r="I372" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="J372" t="s"/>
       <c r="K372" t="n">
@@ -18224,7 +18338,7 @@
         <v>30</v>
       </c>
       <c r="O372" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P372" t="s">
         <v>30</v>
@@ -18252,7 +18366,7 @@
       </c>
       <c r="H373" t="s"/>
       <c r="I373" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="J373" t="s"/>
       <c r="K373" t="n">
@@ -18268,7 +18382,7 @@
         <v>30</v>
       </c>
       <c r="O373" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="P373" t="s">
         <v>30</v>
@@ -18296,7 +18410,7 @@
       </c>
       <c r="H374" t="s"/>
       <c r="I374" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="J374" t="s"/>
       <c r="K374" t="n">
@@ -18312,7 +18426,7 @@
         <v>30</v>
       </c>
       <c r="O374" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="P374" t="s">
         <v>30</v>
@@ -18340,7 +18454,7 @@
       </c>
       <c r="H375" t="s"/>
       <c r="I375" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="J375" t="s"/>
       <c r="K375" t="n">
@@ -18384,7 +18498,7 @@
       </c>
       <c r="H376" t="s"/>
       <c r="I376" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="J376" t="s"/>
       <c r="K376" t="n">
@@ -18400,7 +18514,7 @@
         <v>30</v>
       </c>
       <c r="O376" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P376" t="s">
         <v>30</v>
@@ -18428,7 +18542,7 @@
       </c>
       <c r="H377" t="s"/>
       <c r="I377" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="J377" t="s"/>
       <c r="K377" t="n">
@@ -18444,7 +18558,7 @@
         <v>30</v>
       </c>
       <c r="O377" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="P377" t="s">
         <v>30</v>
@@ -18472,7 +18586,7 @@
       </c>
       <c r="H378" t="s"/>
       <c r="I378" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="J378" t="s"/>
       <c r="K378" t="n">
@@ -18488,7 +18602,7 @@
         <v>30</v>
       </c>
       <c r="O378" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="P378" t="s">
         <v>30</v>
@@ -18516,7 +18630,7 @@
       </c>
       <c r="H379" t="s"/>
       <c r="I379" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="J379" t="s"/>
       <c r="K379" t="n">
@@ -18532,7 +18646,7 @@
         <v>30</v>
       </c>
       <c r="O379" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P379" t="s">
         <v>30</v>
@@ -18560,7 +18674,7 @@
       </c>
       <c r="H380" t="s"/>
       <c r="I380" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="J380" t="s"/>
       <c r="K380" t="n">
@@ -18576,7 +18690,7 @@
         <v>30</v>
       </c>
       <c r="O380" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="P380" t="s">
         <v>30</v>
@@ -18604,7 +18718,7 @@
       </c>
       <c r="H381" t="s"/>
       <c r="I381" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="J381" t="s"/>
       <c r="K381" t="n">
@@ -18620,7 +18734,7 @@
         <v>30</v>
       </c>
       <c r="O381" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="P381" t="s">
         <v>30</v>
@@ -18648,7 +18762,7 @@
       </c>
       <c r="H382" t="s"/>
       <c r="I382" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="J382" t="s"/>
       <c r="K382" t="n">
@@ -18664,7 +18778,7 @@
         <v>30</v>
       </c>
       <c r="O382" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P382" t="s">
         <v>30</v>
@@ -18692,7 +18806,7 @@
       </c>
       <c r="H383" t="s"/>
       <c r="I383" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="J383" t="s"/>
       <c r="K383" t="n">
@@ -18708,10 +18822,10 @@
         <v>30</v>
       </c>
       <c r="O383" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="P383" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="384" spans="1:16">
@@ -18736,7 +18850,7 @@
       </c>
       <c r="H384" t="s"/>
       <c r="I384" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="J384" t="s"/>
       <c r="K384" t="n">
@@ -18752,7 +18866,7 @@
         <v>30</v>
       </c>
       <c r="O384" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="P384" t="s">
         <v>30</v>
@@ -18780,7 +18894,7 @@
       </c>
       <c r="H385" t="s"/>
       <c r="I385" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="J385" t="s"/>
       <c r="K385" t="n">
@@ -18824,7 +18938,7 @@
       </c>
       <c r="H386" t="s"/>
       <c r="I386" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="J386" t="s"/>
       <c r="K386" t="n">
@@ -18868,7 +18982,7 @@
       </c>
       <c r="H387" t="s"/>
       <c r="I387" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="J387" t="s"/>
       <c r="K387" t="n">
@@ -18884,7 +18998,7 @@
         <v>30</v>
       </c>
       <c r="O387" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="P387" t="s">
         <v>30</v>
@@ -18912,7 +19026,7 @@
       </c>
       <c r="H388" t="s"/>
       <c r="I388" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="J388" t="s"/>
       <c r="K388" t="n">
@@ -18928,7 +19042,7 @@
         <v>30</v>
       </c>
       <c r="O388" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="P388" t="s">
         <v>30</v>
@@ -18956,7 +19070,7 @@
       </c>
       <c r="H389" t="s"/>
       <c r="I389" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="J389" t="s"/>
       <c r="K389" t="n">
@@ -18972,7 +19086,7 @@
         <v>30</v>
       </c>
       <c r="O389" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="P389" t="s">
         <v>30</v>
@@ -19000,7 +19114,7 @@
       </c>
       <c r="H390" t="s"/>
       <c r="I390" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="J390" t="s"/>
       <c r="K390" t="n">
@@ -19016,7 +19130,7 @@
         <v>30</v>
       </c>
       <c r="O390" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="P390" t="s">
         <v>30</v>
@@ -19044,7 +19158,7 @@
       </c>
       <c r="H391" t="s"/>
       <c r="I391" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="J391" t="s"/>
       <c r="K391" t="n">
@@ -19060,10 +19174,10 @@
         <v>30</v>
       </c>
       <c r="O391" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="P391" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="392" spans="1:16">
@@ -19088,7 +19202,7 @@
       </c>
       <c r="H392" t="s"/>
       <c r="I392" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="J392" t="s"/>
       <c r="K392" t="n">
@@ -19104,10 +19218,10 @@
         <v>30</v>
       </c>
       <c r="O392" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="P392" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="393" spans="1:16">
@@ -19132,7 +19246,7 @@
       </c>
       <c r="H393" t="s"/>
       <c r="I393" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="J393" t="s"/>
       <c r="K393" t="n">
@@ -19148,10 +19262,10 @@
         <v>30</v>
       </c>
       <c r="O393" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="P393" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="394" spans="1:16">
@@ -19176,7 +19290,7 @@
       </c>
       <c r="H394" t="s"/>
       <c r="I394" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="J394" t="s"/>
       <c r="K394" t="n">
@@ -19192,7 +19306,7 @@
         <v>30</v>
       </c>
       <c r="O394" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P394" t="s">
         <v>30</v>
@@ -19220,7 +19334,7 @@
       </c>
       <c r="H395" t="s"/>
       <c r="I395" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="J395" t="s"/>
       <c r="K395" t="n">
@@ -19236,7 +19350,7 @@
         <v>30</v>
       </c>
       <c r="O395" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="P395" t="s">
         <v>30</v>
@@ -19264,7 +19378,7 @@
       </c>
       <c r="H396" t="s"/>
       <c r="I396" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="J396" t="s"/>
       <c r="K396" t="n">
@@ -19280,7 +19394,7 @@
         <v>30</v>
       </c>
       <c r="O396" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="P396" t="s">
         <v>30</v>
@@ -19308,7 +19422,7 @@
       </c>
       <c r="H397" t="s"/>
       <c r="I397" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="J397" t="s"/>
       <c r="K397" t="n">
@@ -19324,7 +19438,7 @@
         <v>30</v>
       </c>
       <c r="O397" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="P397" t="s">
         <v>30</v>
@@ -19352,7 +19466,7 @@
       </c>
       <c r="H398" t="s"/>
       <c r="I398" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="J398" t="s"/>
       <c r="K398" t="n">
@@ -19396,11 +19510,11 @@
       </c>
       <c r="H399" t="s"/>
       <c r="I399" t="s">
-        <v>61</v>
+        <v>249</v>
       </c>
       <c r="J399" t="s"/>
       <c r="K399" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L399" s="2" t="n">
         <v>1</v>
@@ -19412,10 +19526,10 @@
         <v>30</v>
       </c>
       <c r="O399" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="P399" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="400" spans="1:16">
@@ -19440,7 +19554,7 @@
       </c>
       <c r="H400" t="s"/>
       <c r="I400" t="s">
-        <v>441</v>
+        <v>250</v>
       </c>
       <c r="J400" t="s"/>
       <c r="K400" t="n">
@@ -19456,10 +19570,10 @@
         <v>30</v>
       </c>
       <c r="O400" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="P400" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="401" spans="1:16">
@@ -19484,11 +19598,11 @@
       </c>
       <c r="H401" t="s"/>
       <c r="I401" t="s">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="J401" t="s"/>
       <c r="K401" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L401" s="2" t="n">
         <v>1</v>
@@ -19500,7 +19614,7 @@
         <v>30</v>
       </c>
       <c r="O401" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="P401" t="s">
         <v>30</v>
@@ -19528,7 +19642,7 @@
       </c>
       <c r="H402" t="s"/>
       <c r="I402" t="s">
-        <v>443</v>
+        <v>252</v>
       </c>
       <c r="J402" t="s"/>
       <c r="K402" t="n">
@@ -19544,7 +19658,7 @@
         <v>30</v>
       </c>
       <c r="O402" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="P402" t="s">
         <v>30</v>
@@ -19572,11 +19686,11 @@
       </c>
       <c r="H403" t="s"/>
       <c r="I403" t="s">
-        <v>69</v>
+        <v>253</v>
       </c>
       <c r="J403" t="s"/>
       <c r="K403" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L403" s="2" t="n">
         <v>1</v>
@@ -19588,7 +19702,7 @@
         <v>30</v>
       </c>
       <c r="O403" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="P403" t="s">
         <v>30</v>
@@ -19616,7 +19730,7 @@
       </c>
       <c r="H404" t="s"/>
       <c r="I404" t="s">
-        <v>445</v>
+        <v>254</v>
       </c>
       <c r="J404" t="s"/>
       <c r="K404" t="n">
@@ -19632,7 +19746,7 @@
         <v>30</v>
       </c>
       <c r="O404" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="P404" t="s">
         <v>30</v>
@@ -19660,11 +19774,11 @@
       </c>
       <c r="H405" t="s"/>
       <c r="I405" t="s">
-        <v>70</v>
+        <v>255</v>
       </c>
       <c r="J405" t="s"/>
       <c r="K405" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L405" s="2" t="n">
         <v>1</v>
@@ -19676,10 +19790,10 @@
         <v>30</v>
       </c>
       <c r="O405" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="P405" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="406" spans="1:16">
@@ -19704,7 +19818,7 @@
       </c>
       <c r="H406" t="s"/>
       <c r="I406" t="s">
-        <v>447</v>
+        <v>256</v>
       </c>
       <c r="J406" t="s"/>
       <c r="K406" t="n">
@@ -19720,10 +19834,10 @@
         <v>30</v>
       </c>
       <c r="O406" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="P406" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="407" spans="1:16">
@@ -19748,11 +19862,11 @@
       </c>
       <c r="H407" t="s"/>
       <c r="I407" t="s">
-        <v>72</v>
+        <v>257</v>
       </c>
       <c r="J407" t="s"/>
       <c r="K407" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L407" s="2" t="n">
         <v>1</v>
@@ -19764,7 +19878,7 @@
         <v>30</v>
       </c>
       <c r="O407" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="P407" t="s">
         <v>30</v>
@@ -19792,7 +19906,7 @@
       </c>
       <c r="H408" t="s"/>
       <c r="I408" t="s">
-        <v>449</v>
+        <v>258</v>
       </c>
       <c r="J408" t="s"/>
       <c r="K408" t="n">
@@ -19808,7 +19922,7 @@
         <v>30</v>
       </c>
       <c r="O408" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="P408" t="s">
         <v>30</v>
@@ -19836,11 +19950,11 @@
       </c>
       <c r="H409" t="s"/>
       <c r="I409" t="s">
-        <v>73</v>
+        <v>259</v>
       </c>
       <c r="J409" t="s"/>
       <c r="K409" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L409" s="2" t="n">
         <v>1</v>
@@ -19852,7 +19966,7 @@
         <v>30</v>
       </c>
       <c r="O409" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="P409" t="s">
         <v>30</v>
@@ -19880,7 +19994,7 @@
       </c>
       <c r="H410" t="s"/>
       <c r="I410" t="s">
-        <v>451</v>
+        <v>260</v>
       </c>
       <c r="J410" t="s"/>
       <c r="K410" t="n">
@@ -19896,7 +20010,7 @@
         <v>30</v>
       </c>
       <c r="O410" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="P410" t="s">
         <v>30</v>
@@ -19924,11 +20038,11 @@
       </c>
       <c r="H411" t="s"/>
       <c r="I411" t="s">
-        <v>74</v>
+        <v>261</v>
       </c>
       <c r="J411" t="s"/>
       <c r="K411" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L411" s="2" t="n">
         <v>1</v>
@@ -19940,7 +20054,7 @@
         <v>30</v>
       </c>
       <c r="O411" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="P411" t="s">
         <v>30</v>
@@ -19968,7 +20082,7 @@
       </c>
       <c r="H412" t="s"/>
       <c r="I412" t="s">
-        <v>453</v>
+        <v>262</v>
       </c>
       <c r="J412" t="s"/>
       <c r="K412" t="n">
@@ -19984,7 +20098,7 @@
         <v>30</v>
       </c>
       <c r="O412" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="P412" t="s">
         <v>30</v>
@@ -20012,11 +20126,11 @@
       </c>
       <c r="H413" t="s"/>
       <c r="I413" t="s">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="J413" t="s"/>
       <c r="K413" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L413" s="2" t="n">
         <v>1</v>
@@ -20028,7 +20142,7 @@
         <v>30</v>
       </c>
       <c r="O413" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="P413" t="s">
         <v>30</v>
@@ -20056,7 +20170,7 @@
       </c>
       <c r="H414" t="s"/>
       <c r="I414" t="s">
-        <v>455</v>
+        <v>264</v>
       </c>
       <c r="J414" t="s"/>
       <c r="K414" t="n">
@@ -20072,7 +20186,7 @@
         <v>30</v>
       </c>
       <c r="O414" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="P414" t="s">
         <v>30</v>
@@ -20100,11 +20214,11 @@
       </c>
       <c r="H415" t="s"/>
       <c r="I415" t="s">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="J415" t="s"/>
       <c r="K415" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L415" s="2" t="n">
         <v>1</v>
@@ -20116,7 +20230,7 @@
         <v>30</v>
       </c>
       <c r="O415" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="P415" t="s">
         <v>30</v>
@@ -20144,7 +20258,7 @@
       </c>
       <c r="H416" t="s"/>
       <c r="I416" t="s">
-        <v>457</v>
+        <v>266</v>
       </c>
       <c r="J416" t="s"/>
       <c r="K416" t="n">
@@ -20160,9 +20274,1681 @@
         <v>30</v>
       </c>
       <c r="O416" t="s">
+        <v>100</v>
+      </c>
+      <c r="P416" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16">
+      <c r="A417" t="n">
+        <v>416</v>
+      </c>
+      <c r="B417" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C417" t="s">
+        <v>30</v>
+      </c>
+      <c r="D417" t="s">
+        <v>459</v>
+      </c>
+      <c r="E417" t="s"/>
+      <c r="F417" t="s">
+        <v>30</v>
+      </c>
+      <c r="G417" t="s">
+        <v>459</v>
+      </c>
+      <c r="H417" t="s"/>
+      <c r="I417" t="s">
+        <v>267</v>
+      </c>
+      <c r="J417" t="s"/>
+      <c r="K417" t="n">
+        <v>160</v>
+      </c>
+      <c r="L417" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M417" t="s">
+        <v>32</v>
+      </c>
+      <c r="N417" t="s">
+        <v>30</v>
+      </c>
+      <c r="O417" t="s">
+        <v>95</v>
+      </c>
+      <c r="P417" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16">
+      <c r="A418" t="n">
+        <v>417</v>
+      </c>
+      <c r="B418" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C418" t="s">
+        <v>30</v>
+      </c>
+      <c r="D418" t="s">
+        <v>460</v>
+      </c>
+      <c r="E418" t="s"/>
+      <c r="F418" t="s">
+        <v>30</v>
+      </c>
+      <c r="G418" t="s">
+        <v>460</v>
+      </c>
+      <c r="H418" t="s"/>
+      <c r="I418" t="s">
+        <v>268</v>
+      </c>
+      <c r="J418" t="s"/>
+      <c r="K418" t="n">
+        <v>160</v>
+      </c>
+      <c r="L418" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M418" t="s">
+        <v>32</v>
+      </c>
+      <c r="N418" t="s">
+        <v>30</v>
+      </c>
+      <c r="O418" t="s">
+        <v>95</v>
+      </c>
+      <c r="P418" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16">
+      <c r="A419" t="n">
+        <v>418</v>
+      </c>
+      <c r="B419" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C419" t="s">
+        <v>30</v>
+      </c>
+      <c r="D419" t="s">
+        <v>461</v>
+      </c>
+      <c r="E419" t="s"/>
+      <c r="F419" t="s">
+        <v>30</v>
+      </c>
+      <c r="G419" t="s">
+        <v>461</v>
+      </c>
+      <c r="H419" t="s"/>
+      <c r="I419" t="s">
+        <v>269</v>
+      </c>
+      <c r="J419" t="s"/>
+      <c r="K419" t="n">
+        <v>160</v>
+      </c>
+      <c r="L419" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M419" t="s">
+        <v>32</v>
+      </c>
+      <c r="N419" t="s">
+        <v>30</v>
+      </c>
+      <c r="O419" t="s">
+        <v>111</v>
+      </c>
+      <c r="P419" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16">
+      <c r="A420" t="n">
+        <v>419</v>
+      </c>
+      <c r="B420" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C420" t="s">
+        <v>30</v>
+      </c>
+      <c r="D420" t="s">
+        <v>462</v>
+      </c>
+      <c r="E420" t="s"/>
+      <c r="F420" t="s">
+        <v>30</v>
+      </c>
+      <c r="G420" t="s">
+        <v>462</v>
+      </c>
+      <c r="H420" t="s"/>
+      <c r="I420" t="s">
+        <v>270</v>
+      </c>
+      <c r="J420" t="s"/>
+      <c r="K420" t="n">
+        <v>160</v>
+      </c>
+      <c r="L420" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M420" t="s">
+        <v>32</v>
+      </c>
+      <c r="N420" t="s">
+        <v>30</v>
+      </c>
+      <c r="O420" t="s">
+        <v>86</v>
+      </c>
+      <c r="P420" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16">
+      <c r="A421" t="n">
+        <v>420</v>
+      </c>
+      <c r="B421" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C421" t="s">
+        <v>30</v>
+      </c>
+      <c r="D421" t="s">
+        <v>463</v>
+      </c>
+      <c r="E421" t="s"/>
+      <c r="F421" t="s">
+        <v>30</v>
+      </c>
+      <c r="G421" t="s">
+        <v>463</v>
+      </c>
+      <c r="H421" t="s"/>
+      <c r="I421" t="s">
+        <v>271</v>
+      </c>
+      <c r="J421" t="s"/>
+      <c r="K421" t="n">
+        <v>160</v>
+      </c>
+      <c r="L421" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M421" t="s">
+        <v>32</v>
+      </c>
+      <c r="N421" t="s">
+        <v>30</v>
+      </c>
+      <c r="O421" t="s">
+        <v>157</v>
+      </c>
+      <c r="P421" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16">
+      <c r="A422" t="n">
+        <v>421</v>
+      </c>
+      <c r="B422" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C422" t="s">
+        <v>30</v>
+      </c>
+      <c r="D422" t="s">
+        <v>464</v>
+      </c>
+      <c r="E422" t="s"/>
+      <c r="F422" t="s">
+        <v>30</v>
+      </c>
+      <c r="G422" t="s">
+        <v>464</v>
+      </c>
+      <c r="H422" t="s"/>
+      <c r="I422" t="s">
+        <v>272</v>
+      </c>
+      <c r="J422" t="s"/>
+      <c r="K422" t="n">
+        <v>160</v>
+      </c>
+      <c r="L422" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M422" t="s">
+        <v>32</v>
+      </c>
+      <c r="N422" t="s">
+        <v>30</v>
+      </c>
+      <c r="O422" t="s">
+        <v>98</v>
+      </c>
+      <c r="P422" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16">
+      <c r="A423" t="n">
+        <v>422</v>
+      </c>
+      <c r="B423" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C423" t="s">
+        <v>30</v>
+      </c>
+      <c r="D423" t="s">
+        <v>465</v>
+      </c>
+      <c r="E423" t="s"/>
+      <c r="F423" t="s">
+        <v>30</v>
+      </c>
+      <c r="G423" t="s">
+        <v>465</v>
+      </c>
+      <c r="H423" t="s"/>
+      <c r="I423" t="s">
+        <v>273</v>
+      </c>
+      <c r="J423" t="s"/>
+      <c r="K423" t="n">
+        <v>160</v>
+      </c>
+      <c r="L423" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M423" t="s">
+        <v>32</v>
+      </c>
+      <c r="N423" t="s">
+        <v>30</v>
+      </c>
+      <c r="O423" t="s">
+        <v>98</v>
+      </c>
+      <c r="P423" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16">
+      <c r="A424" t="n">
+        <v>423</v>
+      </c>
+      <c r="B424" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C424" t="s">
+        <v>30</v>
+      </c>
+      <c r="D424" t="s">
+        <v>466</v>
+      </c>
+      <c r="E424" t="s"/>
+      <c r="F424" t="s">
+        <v>30</v>
+      </c>
+      <c r="G424" t="s">
+        <v>466</v>
+      </c>
+      <c r="H424" t="s"/>
+      <c r="I424" t="s">
+        <v>274</v>
+      </c>
+      <c r="J424" t="s"/>
+      <c r="K424" t="n">
+        <v>160</v>
+      </c>
+      <c r="L424" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M424" t="s">
+        <v>32</v>
+      </c>
+      <c r="N424" t="s">
+        <v>30</v>
+      </c>
+      <c r="O424" t="s">
+        <v>185</v>
+      </c>
+      <c r="P424" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16">
+      <c r="A425" t="n">
+        <v>424</v>
+      </c>
+      <c r="B425" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C425" t="s">
+        <v>30</v>
+      </c>
+      <c r="D425" t="s">
+        <v>467</v>
+      </c>
+      <c r="E425" t="s"/>
+      <c r="F425" t="s">
+        <v>30</v>
+      </c>
+      <c r="G425" t="s">
+        <v>467</v>
+      </c>
+      <c r="H425" t="s"/>
+      <c r="I425" t="s">
+        <v>275</v>
+      </c>
+      <c r="J425" t="s"/>
+      <c r="K425" t="n">
+        <v>160</v>
+      </c>
+      <c r="L425" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M425" t="s">
+        <v>32</v>
+      </c>
+      <c r="N425" t="s">
+        <v>30</v>
+      </c>
+      <c r="O425" t="s">
+        <v>185</v>
+      </c>
+      <c r="P425" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="426" spans="1:16">
+      <c r="A426" t="n">
+        <v>425</v>
+      </c>
+      <c r="B426" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C426" t="s">
+        <v>30</v>
+      </c>
+      <c r="D426" t="s">
+        <v>468</v>
+      </c>
+      <c r="E426" t="s"/>
+      <c r="F426" t="s">
+        <v>30</v>
+      </c>
+      <c r="G426" t="s">
+        <v>468</v>
+      </c>
+      <c r="H426" t="s"/>
+      <c r="I426" t="s">
+        <v>276</v>
+      </c>
+      <c r="J426" t="s"/>
+      <c r="K426" t="n">
+        <v>160</v>
+      </c>
+      <c r="L426" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M426" t="s">
+        <v>32</v>
+      </c>
+      <c r="N426" t="s">
+        <v>30</v>
+      </c>
+      <c r="O426" t="s">
+        <v>95</v>
+      </c>
+      <c r="P426" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="427" spans="1:16">
+      <c r="A427" t="n">
+        <v>426</v>
+      </c>
+      <c r="B427" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C427" t="s">
+        <v>30</v>
+      </c>
+      <c r="D427" t="s">
+        <v>469</v>
+      </c>
+      <c r="E427" t="s"/>
+      <c r="F427" t="s">
+        <v>30</v>
+      </c>
+      <c r="G427" t="s">
+        <v>469</v>
+      </c>
+      <c r="H427" t="s"/>
+      <c r="I427" t="s">
+        <v>277</v>
+      </c>
+      <c r="J427" t="s"/>
+      <c r="K427" t="n">
+        <v>160</v>
+      </c>
+      <c r="L427" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M427" t="s">
+        <v>32</v>
+      </c>
+      <c r="N427" t="s">
+        <v>30</v>
+      </c>
+      <c r="O427" t="s">
+        <v>95</v>
+      </c>
+      <c r="P427" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16">
+      <c r="A428" t="n">
+        <v>427</v>
+      </c>
+      <c r="B428" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C428" t="s">
+        <v>30</v>
+      </c>
+      <c r="D428" t="s">
+        <v>470</v>
+      </c>
+      <c r="E428" t="s"/>
+      <c r="F428" t="s">
+        <v>30</v>
+      </c>
+      <c r="G428" t="s">
+        <v>470</v>
+      </c>
+      <c r="H428" t="s"/>
+      <c r="I428" t="s">
+        <v>278</v>
+      </c>
+      <c r="J428" t="s"/>
+      <c r="K428" t="n">
+        <v>160</v>
+      </c>
+      <c r="L428" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M428" t="s">
+        <v>32</v>
+      </c>
+      <c r="N428" t="s">
+        <v>30</v>
+      </c>
+      <c r="O428" t="s">
+        <v>111</v>
+      </c>
+      <c r="P428" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="429" spans="1:16">
+      <c r="A429" t="n">
+        <v>428</v>
+      </c>
+      <c r="B429" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C429" t="s">
+        <v>30</v>
+      </c>
+      <c r="D429" t="s">
+        <v>471</v>
+      </c>
+      <c r="E429" t="s"/>
+      <c r="F429" t="s">
+        <v>30</v>
+      </c>
+      <c r="G429" t="s">
+        <v>471</v>
+      </c>
+      <c r="H429" t="s"/>
+      <c r="I429" t="s">
+        <v>279</v>
+      </c>
+      <c r="J429" t="s"/>
+      <c r="K429" t="n">
+        <v>160</v>
+      </c>
+      <c r="L429" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M429" t="s">
+        <v>32</v>
+      </c>
+      <c r="N429" t="s">
+        <v>30</v>
+      </c>
+      <c r="O429" t="s">
+        <v>98</v>
+      </c>
+      <c r="P429" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="430" spans="1:16">
+      <c r="A430" t="n">
+        <v>429</v>
+      </c>
+      <c r="B430" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C430" t="s">
+        <v>30</v>
+      </c>
+      <c r="D430" t="s">
+        <v>472</v>
+      </c>
+      <c r="E430" t="s"/>
+      <c r="F430" t="s">
+        <v>30</v>
+      </c>
+      <c r="G430" t="s">
+        <v>472</v>
+      </c>
+      <c r="H430" t="s"/>
+      <c r="I430" t="s">
+        <v>280</v>
+      </c>
+      <c r="J430" t="s"/>
+      <c r="K430" t="n">
+        <v>160</v>
+      </c>
+      <c r="L430" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M430" t="s">
+        <v>32</v>
+      </c>
+      <c r="N430" t="s">
+        <v>30</v>
+      </c>
+      <c r="O430" t="s">
+        <v>100</v>
+      </c>
+      <c r="P430" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="431" spans="1:16">
+      <c r="A431" t="n">
+        <v>430</v>
+      </c>
+      <c r="B431" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C431" t="s">
+        <v>30</v>
+      </c>
+      <c r="D431" t="s">
+        <v>473</v>
+      </c>
+      <c r="E431" t="s"/>
+      <c r="F431" t="s">
+        <v>30</v>
+      </c>
+      <c r="G431" t="s">
+        <v>473</v>
+      </c>
+      <c r="H431" t="s"/>
+      <c r="I431" t="s">
+        <v>281</v>
+      </c>
+      <c r="J431" t="s"/>
+      <c r="K431" t="n">
+        <v>160</v>
+      </c>
+      <c r="L431" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M431" t="s">
+        <v>32</v>
+      </c>
+      <c r="N431" t="s">
+        <v>30</v>
+      </c>
+      <c r="O431" t="s">
+        <v>95</v>
+      </c>
+      <c r="P431" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="432" spans="1:16">
+      <c r="A432" t="n">
+        <v>431</v>
+      </c>
+      <c r="B432" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C432" t="s">
+        <v>30</v>
+      </c>
+      <c r="D432" t="s">
+        <v>474</v>
+      </c>
+      <c r="E432" t="s"/>
+      <c r="F432" t="s">
+        <v>30</v>
+      </c>
+      <c r="G432" t="s">
+        <v>474</v>
+      </c>
+      <c r="H432" t="s"/>
+      <c r="I432" t="s">
+        <v>282</v>
+      </c>
+      <c r="J432" t="s"/>
+      <c r="K432" t="n">
+        <v>160</v>
+      </c>
+      <c r="L432" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M432" t="s">
+        <v>32</v>
+      </c>
+      <c r="N432" t="s">
+        <v>30</v>
+      </c>
+      <c r="O432" t="s">
+        <v>86</v>
+      </c>
+      <c r="P432" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="433" spans="1:16">
+      <c r="A433" t="n">
+        <v>432</v>
+      </c>
+      <c r="B433" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C433" t="s">
+        <v>30</v>
+      </c>
+      <c r="D433" t="s">
+        <v>475</v>
+      </c>
+      <c r="E433" t="s"/>
+      <c r="F433" t="s">
+        <v>30</v>
+      </c>
+      <c r="G433" t="s">
+        <v>475</v>
+      </c>
+      <c r="H433" t="s"/>
+      <c r="I433" t="s">
+        <v>283</v>
+      </c>
+      <c r="J433" t="s"/>
+      <c r="K433" t="n">
+        <v>160</v>
+      </c>
+      <c r="L433" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M433" t="s">
+        <v>32</v>
+      </c>
+      <c r="N433" t="s">
+        <v>30</v>
+      </c>
+      <c r="O433" t="s">
+        <v>95</v>
+      </c>
+      <c r="P433" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="434" spans="1:16">
+      <c r="A434" t="n">
+        <v>433</v>
+      </c>
+      <c r="B434" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C434" t="s">
+        <v>30</v>
+      </c>
+      <c r="D434" t="s">
+        <v>476</v>
+      </c>
+      <c r="E434" t="s"/>
+      <c r="F434" t="s">
+        <v>30</v>
+      </c>
+      <c r="G434" t="s">
+        <v>476</v>
+      </c>
+      <c r="H434" t="s"/>
+      <c r="I434" t="s">
+        <v>284</v>
+      </c>
+      <c r="J434" t="s"/>
+      <c r="K434" t="n">
+        <v>160</v>
+      </c>
+      <c r="L434" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M434" t="s">
+        <v>32</v>
+      </c>
+      <c r="N434" t="s">
+        <v>30</v>
+      </c>
+      <c r="O434" t="s">
+        <v>111</v>
+      </c>
+      <c r="P434" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="435" spans="1:16">
+      <c r="A435" t="n">
+        <v>434</v>
+      </c>
+      <c r="B435" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C435" t="s">
+        <v>30</v>
+      </c>
+      <c r="D435" t="s">
+        <v>477</v>
+      </c>
+      <c r="E435" t="s"/>
+      <c r="F435" t="s">
+        <v>30</v>
+      </c>
+      <c r="G435" t="s">
+        <v>477</v>
+      </c>
+      <c r="H435" t="s"/>
+      <c r="I435" t="s">
+        <v>285</v>
+      </c>
+      <c r="J435" t="s"/>
+      <c r="K435" t="n">
+        <v>160</v>
+      </c>
+      <c r="L435" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M435" t="s">
+        <v>32</v>
+      </c>
+      <c r="N435" t="s">
+        <v>30</v>
+      </c>
+      <c r="O435" t="s">
+        <v>111</v>
+      </c>
+      <c r="P435" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="436" spans="1:16">
+      <c r="A436" t="n">
+        <v>435</v>
+      </c>
+      <c r="B436" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C436" t="s">
+        <v>30</v>
+      </c>
+      <c r="D436" t="s">
+        <v>478</v>
+      </c>
+      <c r="E436" t="s"/>
+      <c r="F436" t="s">
+        <v>30</v>
+      </c>
+      <c r="G436" t="s">
+        <v>478</v>
+      </c>
+      <c r="H436" t="s"/>
+      <c r="I436" t="s">
+        <v>286</v>
+      </c>
+      <c r="J436" t="s"/>
+      <c r="K436" t="n">
+        <v>160</v>
+      </c>
+      <c r="L436" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M436" t="s">
+        <v>32</v>
+      </c>
+      <c r="N436" t="s">
+        <v>30</v>
+      </c>
+      <c r="O436" t="s">
+        <v>98</v>
+      </c>
+      <c r="P436" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="437" spans="1:16">
+      <c r="A437" t="n">
+        <v>436</v>
+      </c>
+      <c r="B437" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C437" t="s">
+        <v>30</v>
+      </c>
+      <c r="D437" t="s">
+        <v>479</v>
+      </c>
+      <c r="E437" t="s"/>
+      <c r="F437" t="s">
+        <v>30</v>
+      </c>
+      <c r="G437" t="s">
+        <v>479</v>
+      </c>
+      <c r="H437" t="s"/>
+      <c r="I437" t="s">
+        <v>62</v>
+      </c>
+      <c r="J437" t="s"/>
+      <c r="K437" t="n">
+        <v>0</v>
+      </c>
+      <c r="L437" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M437" t="s">
+        <v>32</v>
+      </c>
+      <c r="N437" t="s">
+        <v>30</v>
+      </c>
+      <c r="O437" t="s">
         <v>33</v>
       </c>
-      <c r="P416" t="s">
+      <c r="P437" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="438" spans="1:16">
+      <c r="A438" t="n">
+        <v>437</v>
+      </c>
+      <c r="B438" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C438" t="s">
+        <v>30</v>
+      </c>
+      <c r="D438" t="s">
+        <v>480</v>
+      </c>
+      <c r="E438" t="s"/>
+      <c r="F438" t="s">
+        <v>30</v>
+      </c>
+      <c r="G438" t="s">
+        <v>480</v>
+      </c>
+      <c r="H438" t="s"/>
+      <c r="I438" t="s">
+        <v>479</v>
+      </c>
+      <c r="J438" t="s"/>
+      <c r="K438" t="n">
+        <v>160</v>
+      </c>
+      <c r="L438" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M438" t="s">
+        <v>32</v>
+      </c>
+      <c r="N438" t="s">
+        <v>30</v>
+      </c>
+      <c r="O438" t="s">
+        <v>33</v>
+      </c>
+      <c r="P438" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="439" spans="1:16">
+      <c r="A439" t="n">
+        <v>438</v>
+      </c>
+      <c r="B439" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C439" t="s">
+        <v>30</v>
+      </c>
+      <c r="D439" t="s">
+        <v>481</v>
+      </c>
+      <c r="E439" t="s"/>
+      <c r="F439" t="s">
+        <v>30</v>
+      </c>
+      <c r="G439" t="s">
+        <v>481</v>
+      </c>
+      <c r="H439" t="s"/>
+      <c r="I439" t="s">
+        <v>70</v>
+      </c>
+      <c r="J439" t="s"/>
+      <c r="K439" t="n">
+        <v>0</v>
+      </c>
+      <c r="L439" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M439" t="s">
+        <v>32</v>
+      </c>
+      <c r="N439" t="s">
+        <v>30</v>
+      </c>
+      <c r="O439" t="s">
+        <v>33</v>
+      </c>
+      <c r="P439" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="440" spans="1:16">
+      <c r="A440" t="n">
+        <v>439</v>
+      </c>
+      <c r="B440" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C440" t="s">
+        <v>30</v>
+      </c>
+      <c r="D440" t="s">
+        <v>482</v>
+      </c>
+      <c r="E440" t="s"/>
+      <c r="F440" t="s">
+        <v>30</v>
+      </c>
+      <c r="G440" t="s">
+        <v>482</v>
+      </c>
+      <c r="H440" t="s"/>
+      <c r="I440" t="s">
+        <v>481</v>
+      </c>
+      <c r="J440" t="s"/>
+      <c r="K440" t="n">
+        <v>160</v>
+      </c>
+      <c r="L440" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M440" t="s">
+        <v>32</v>
+      </c>
+      <c r="N440" t="s">
+        <v>30</v>
+      </c>
+      <c r="O440" t="s">
+        <v>33</v>
+      </c>
+      <c r="P440" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="441" spans="1:16">
+      <c r="A441" t="n">
+        <v>440</v>
+      </c>
+      <c r="B441" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C441" t="s">
+        <v>30</v>
+      </c>
+      <c r="D441" t="s">
+        <v>483</v>
+      </c>
+      <c r="E441" t="s"/>
+      <c r="F441" t="s">
+        <v>30</v>
+      </c>
+      <c r="G441" t="s">
+        <v>483</v>
+      </c>
+      <c r="H441" t="s"/>
+      <c r="I441" t="s">
+        <v>71</v>
+      </c>
+      <c r="J441" t="s"/>
+      <c r="K441" t="n">
+        <v>0</v>
+      </c>
+      <c r="L441" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M441" t="s">
+        <v>32</v>
+      </c>
+      <c r="N441" t="s">
+        <v>30</v>
+      </c>
+      <c r="O441" t="s">
+        <v>33</v>
+      </c>
+      <c r="P441" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="442" spans="1:16">
+      <c r="A442" t="n">
+        <v>441</v>
+      </c>
+      <c r="B442" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C442" t="s">
+        <v>30</v>
+      </c>
+      <c r="D442" t="s">
+        <v>484</v>
+      </c>
+      <c r="E442" t="s"/>
+      <c r="F442" t="s">
+        <v>30</v>
+      </c>
+      <c r="G442" t="s">
+        <v>484</v>
+      </c>
+      <c r="H442" t="s"/>
+      <c r="I442" t="s">
+        <v>483</v>
+      </c>
+      <c r="J442" t="s"/>
+      <c r="K442" t="n">
+        <v>160</v>
+      </c>
+      <c r="L442" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M442" t="s">
+        <v>32</v>
+      </c>
+      <c r="N442" t="s">
+        <v>30</v>
+      </c>
+      <c r="O442" t="s">
+        <v>33</v>
+      </c>
+      <c r="P442" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="443" spans="1:16">
+      <c r="A443" t="n">
+        <v>442</v>
+      </c>
+      <c r="B443" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C443" t="s">
+        <v>30</v>
+      </c>
+      <c r="D443" t="s">
+        <v>485</v>
+      </c>
+      <c r="E443" t="s"/>
+      <c r="F443" t="s">
+        <v>30</v>
+      </c>
+      <c r="G443" t="s">
+        <v>485</v>
+      </c>
+      <c r="H443" t="s"/>
+      <c r="I443" t="s">
+        <v>72</v>
+      </c>
+      <c r="J443" t="s"/>
+      <c r="K443" t="n">
+        <v>0</v>
+      </c>
+      <c r="L443" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M443" t="s">
+        <v>32</v>
+      </c>
+      <c r="N443" t="s">
+        <v>30</v>
+      </c>
+      <c r="O443" t="s">
+        <v>33</v>
+      </c>
+      <c r="P443" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="444" spans="1:16">
+      <c r="A444" t="n">
+        <v>443</v>
+      </c>
+      <c r="B444" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C444" t="s">
+        <v>30</v>
+      </c>
+      <c r="D444" t="s">
+        <v>486</v>
+      </c>
+      <c r="E444" t="s"/>
+      <c r="F444" t="s">
+        <v>30</v>
+      </c>
+      <c r="G444" t="s">
+        <v>486</v>
+      </c>
+      <c r="H444" t="s"/>
+      <c r="I444" t="s">
+        <v>485</v>
+      </c>
+      <c r="J444" t="s"/>
+      <c r="K444" t="n">
+        <v>160</v>
+      </c>
+      <c r="L444" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M444" t="s">
+        <v>32</v>
+      </c>
+      <c r="N444" t="s">
+        <v>30</v>
+      </c>
+      <c r="O444" t="s">
+        <v>33</v>
+      </c>
+      <c r="P444" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="445" spans="1:16">
+      <c r="A445" t="n">
+        <v>444</v>
+      </c>
+      <c r="B445" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C445" t="s">
+        <v>30</v>
+      </c>
+      <c r="D445" t="s">
+        <v>487</v>
+      </c>
+      <c r="E445" t="s"/>
+      <c r="F445" t="s">
+        <v>30</v>
+      </c>
+      <c r="G445" t="s">
+        <v>487</v>
+      </c>
+      <c r="H445" t="s"/>
+      <c r="I445" t="s">
+        <v>74</v>
+      </c>
+      <c r="J445" t="s"/>
+      <c r="K445" t="n">
+        <v>0</v>
+      </c>
+      <c r="L445" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M445" t="s">
+        <v>32</v>
+      </c>
+      <c r="N445" t="s">
+        <v>30</v>
+      </c>
+      <c r="O445" t="s">
+        <v>33</v>
+      </c>
+      <c r="P445" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="446" spans="1:16">
+      <c r="A446" t="n">
+        <v>445</v>
+      </c>
+      <c r="B446" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C446" t="s">
+        <v>30</v>
+      </c>
+      <c r="D446" t="s">
+        <v>488</v>
+      </c>
+      <c r="E446" t="s"/>
+      <c r="F446" t="s">
+        <v>30</v>
+      </c>
+      <c r="G446" t="s">
+        <v>488</v>
+      </c>
+      <c r="H446" t="s"/>
+      <c r="I446" t="s">
+        <v>487</v>
+      </c>
+      <c r="J446" t="s"/>
+      <c r="K446" t="n">
+        <v>160</v>
+      </c>
+      <c r="L446" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M446" t="s">
+        <v>32</v>
+      </c>
+      <c r="N446" t="s">
+        <v>30</v>
+      </c>
+      <c r="O446" t="s">
+        <v>33</v>
+      </c>
+      <c r="P446" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="447" spans="1:16">
+      <c r="A447" t="n">
+        <v>446</v>
+      </c>
+      <c r="B447" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C447" t="s">
+        <v>30</v>
+      </c>
+      <c r="D447" t="s">
+        <v>489</v>
+      </c>
+      <c r="E447" t="s"/>
+      <c r="F447" t="s">
+        <v>30</v>
+      </c>
+      <c r="G447" t="s">
+        <v>489</v>
+      </c>
+      <c r="H447" t="s"/>
+      <c r="I447" t="s">
+        <v>75</v>
+      </c>
+      <c r="J447" t="s"/>
+      <c r="K447" t="n">
+        <v>0</v>
+      </c>
+      <c r="L447" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M447" t="s">
+        <v>32</v>
+      </c>
+      <c r="N447" t="s">
+        <v>30</v>
+      </c>
+      <c r="O447" t="s">
+        <v>33</v>
+      </c>
+      <c r="P447" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="448" spans="1:16">
+      <c r="A448" t="n">
+        <v>447</v>
+      </c>
+      <c r="B448" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C448" t="s">
+        <v>30</v>
+      </c>
+      <c r="D448" t="s">
+        <v>490</v>
+      </c>
+      <c r="E448" t="s"/>
+      <c r="F448" t="s">
+        <v>30</v>
+      </c>
+      <c r="G448" t="s">
+        <v>490</v>
+      </c>
+      <c r="H448" t="s"/>
+      <c r="I448" t="s">
+        <v>489</v>
+      </c>
+      <c r="J448" t="s"/>
+      <c r="K448" t="n">
+        <v>160</v>
+      </c>
+      <c r="L448" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M448" t="s">
+        <v>32</v>
+      </c>
+      <c r="N448" t="s">
+        <v>30</v>
+      </c>
+      <c r="O448" t="s">
+        <v>33</v>
+      </c>
+      <c r="P448" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="449" spans="1:16">
+      <c r="A449" t="n">
+        <v>448</v>
+      </c>
+      <c r="B449" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C449" t="s">
+        <v>30</v>
+      </c>
+      <c r="D449" t="s">
+        <v>491</v>
+      </c>
+      <c r="E449" t="s"/>
+      <c r="F449" t="s">
+        <v>30</v>
+      </c>
+      <c r="G449" t="s">
+        <v>491</v>
+      </c>
+      <c r="H449" t="s"/>
+      <c r="I449" t="s">
+        <v>76</v>
+      </c>
+      <c r="J449" t="s"/>
+      <c r="K449" t="n">
+        <v>0</v>
+      </c>
+      <c r="L449" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M449" t="s">
+        <v>32</v>
+      </c>
+      <c r="N449" t="s">
+        <v>30</v>
+      </c>
+      <c r="O449" t="s">
+        <v>33</v>
+      </c>
+      <c r="P449" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="450" spans="1:16">
+      <c r="A450" t="n">
+        <v>449</v>
+      </c>
+      <c r="B450" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C450" t="s">
+        <v>30</v>
+      </c>
+      <c r="D450" t="s">
+        <v>492</v>
+      </c>
+      <c r="E450" t="s"/>
+      <c r="F450" t="s">
+        <v>30</v>
+      </c>
+      <c r="G450" t="s">
+        <v>492</v>
+      </c>
+      <c r="H450" t="s"/>
+      <c r="I450" t="s">
+        <v>491</v>
+      </c>
+      <c r="J450" t="s"/>
+      <c r="K450" t="n">
+        <v>160</v>
+      </c>
+      <c r="L450" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M450" t="s">
+        <v>32</v>
+      </c>
+      <c r="N450" t="s">
+        <v>30</v>
+      </c>
+      <c r="O450" t="s">
+        <v>33</v>
+      </c>
+      <c r="P450" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="451" spans="1:16">
+      <c r="A451" t="n">
+        <v>450</v>
+      </c>
+      <c r="B451" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C451" t="s">
+        <v>30</v>
+      </c>
+      <c r="D451" t="s">
+        <v>493</v>
+      </c>
+      <c r="E451" t="s"/>
+      <c r="F451" t="s">
+        <v>30</v>
+      </c>
+      <c r="G451" t="s">
+        <v>493</v>
+      </c>
+      <c r="H451" t="s"/>
+      <c r="I451" t="s">
+        <v>77</v>
+      </c>
+      <c r="J451" t="s"/>
+      <c r="K451" t="n">
+        <v>0</v>
+      </c>
+      <c r="L451" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M451" t="s">
+        <v>32</v>
+      </c>
+      <c r="N451" t="s">
+        <v>30</v>
+      </c>
+      <c r="O451" t="s">
+        <v>33</v>
+      </c>
+      <c r="P451" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="452" spans="1:16">
+      <c r="A452" t="n">
+        <v>451</v>
+      </c>
+      <c r="B452" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C452" t="s">
+        <v>30</v>
+      </c>
+      <c r="D452" t="s">
+        <v>494</v>
+      </c>
+      <c r="E452" t="s"/>
+      <c r="F452" t="s">
+        <v>30</v>
+      </c>
+      <c r="G452" t="s">
+        <v>494</v>
+      </c>
+      <c r="H452" t="s"/>
+      <c r="I452" t="s">
+        <v>493</v>
+      </c>
+      <c r="J452" t="s"/>
+      <c r="K452" t="n">
+        <v>160</v>
+      </c>
+      <c r="L452" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M452" t="s">
+        <v>32</v>
+      </c>
+      <c r="N452" t="s">
+        <v>30</v>
+      </c>
+      <c r="O452" t="s">
+        <v>33</v>
+      </c>
+      <c r="P452" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="453" spans="1:16">
+      <c r="A453" t="n">
+        <v>452</v>
+      </c>
+      <c r="B453" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C453" t="s">
+        <v>30</v>
+      </c>
+      <c r="D453" t="s">
+        <v>495</v>
+      </c>
+      <c r="E453" t="s"/>
+      <c r="F453" t="s">
+        <v>30</v>
+      </c>
+      <c r="G453" t="s">
+        <v>495</v>
+      </c>
+      <c r="H453" t="s"/>
+      <c r="I453" t="s">
+        <v>80</v>
+      </c>
+      <c r="J453" t="s"/>
+      <c r="K453" t="n">
+        <v>0</v>
+      </c>
+      <c r="L453" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M453" t="s">
+        <v>32</v>
+      </c>
+      <c r="N453" t="s">
+        <v>30</v>
+      </c>
+      <c r="O453" t="s">
+        <v>33</v>
+      </c>
+      <c r="P453" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="454" spans="1:16">
+      <c r="A454" t="n">
+        <v>453</v>
+      </c>
+      <c r="B454" s="2" t="n">
+        <v>2958465</v>
+      </c>
+      <c r="C454" t="s">
+        <v>30</v>
+      </c>
+      <c r="D454" t="s">
+        <v>496</v>
+      </c>
+      <c r="E454" t="s"/>
+      <c r="F454" t="s">
+        <v>30</v>
+      </c>
+      <c r="G454" t="s">
+        <v>496</v>
+      </c>
+      <c r="H454" t="s"/>
+      <c r="I454" t="s">
+        <v>495</v>
+      </c>
+      <c r="J454" t="s"/>
+      <c r="K454" t="n">
+        <v>160</v>
+      </c>
+      <c r="L454" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M454" t="s">
+        <v>32</v>
+      </c>
+      <c r="N454" t="s">
+        <v>30</v>
+      </c>
+      <c r="O454" t="s">
+        <v>33</v>
+      </c>
+      <c r="P454" t="s">
         <v>30</v>
       </c>
     </row>
